--- a/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.499778317378571</v>
+        <v>2.499778317378514</v>
       </c>
       <c r="C2">
-        <v>0.3533471044015926</v>
+        <v>0.3533471044013936</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3112398725305141</v>
+        <v>0.3112398725304573</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6092879672127509</v>
+        <v>0.6092879672127793</v>
       </c>
       <c r="K2">
-        <v>0.4326082992677271</v>
+        <v>0.4326082992677129</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.149834911921118</v>
+        <v>2.149834911921232</v>
       </c>
       <c r="C3">
-        <v>0.3055124922079528</v>
+        <v>0.3055124922076971</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2673881678357901</v>
+        <v>0.2673881678357404</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.249025814377802</v>
+        <v>2.249025814377845</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.52356138164523</v>
+        <v>0.5235613816452371</v>
       </c>
       <c r="K3">
-        <v>0.3709112733810613</v>
+        <v>0.370911273381104</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.93912868393943</v>
+        <v>1.939128683939401</v>
       </c>
       <c r="C4">
-        <v>0.2766178664188033</v>
+        <v>0.276617866418789</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2411372339315037</v>
+        <v>0.2411372339315605</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.080684706423071</v>
+        <v>2.080684706423085</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4719055154228187</v>
+        <v>0.4719055154228258</v>
       </c>
       <c r="K4">
-        <v>0.333892617522892</v>
+        <v>0.3338926175229204</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.854151090323256</v>
+        <v>1.854151090323398</v>
       </c>
       <c r="C5">
-        <v>0.2649401170588703</v>
+        <v>0.264940117058643</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2305843411120421</v>
+        <v>0.2305843411120208</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>2.013363109980816</v>
+        <v>2.013363109980801</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4510626922775174</v>
+        <v>0.4510626922775032</v>
       </c>
       <c r="K5">
-        <v>0.3189908719868413</v>
+        <v>0.3189908719868555</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>1.840089844932123</v>
       </c>
       <c r="C6">
-        <v>0.2630062808792815</v>
+        <v>0.263006280879523</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2288400921794107</v>
+        <v>0.2288400921794249</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
         <v>2.00225646075809</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4476132117541241</v>
+        <v>0.4476132117541312</v>
       </c>
       <c r="K6">
         <v>0.3165266274158043</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937979253975612</v>
+        <v>1.937979253975726</v>
       </c>
       <c r="C7">
-        <v>0.2764600114379192</v>
+        <v>0.2764600114384024</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0.2409943596640289</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>2.079771842810331</v>
+        <v>2.079771842810317</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4716236311004778</v>
+        <v>0.471623631100492</v>
       </c>
       <c r="K7">
-        <v>0.3336909454894226</v>
+        <v>0.333690945489451</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>2.378153025180382</v>
       </c>
       <c r="C8">
-        <v>0.3367404822471087</v>
+        <v>0.3367404822468814</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2959640040525215</v>
+        <v>0.2959640040524292</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.433559466053126</v>
+        <v>2.43355946605314</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5795009559058286</v>
+        <v>0.5795009559058428</v>
       </c>
       <c r="K8">
-        <v>0.4111346146558503</v>
+        <v>0.4111346146558077</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282550886467675</v>
+        <v>3.282550886467561</v>
       </c>
       <c r="C9">
-        <v>0.4599027810035636</v>
+        <v>0.4599027810035352</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4103944151079659</v>
+        <v>0.4103944151079872</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.183328114570173</v>
+        <v>3.183328114570159</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8008525203558889</v>
+        <v>0.8008525203558747</v>
       </c>
       <c r="K9">
-        <v>0.571581698367325</v>
+        <v>0.5715816983673108</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>3.985463700247635</v>
       </c>
       <c r="C10">
-        <v>0.5553334206647378</v>
+        <v>0.5553334206649367</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5006012211488411</v>
+        <v>0.5006012211488056</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>3.783908379009375</v>
+        <v>3.783908379009404</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9727475727247139</v>
+        <v>0.9727475727246997</v>
       </c>
       <c r="K10">
-        <v>0.697506284716674</v>
+        <v>0.6975062847167308</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.31721290919387</v>
+        <v>4.317212909193984</v>
       </c>
       <c r="C11">
-        <v>0.6003503471069962</v>
+        <v>0.6003503471078488</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5435417425484061</v>
+        <v>0.5435417425484985</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.072143393218539</v>
+        <v>4.072143393218568</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.053857356393777</v>
+        <v>1.053857356393792</v>
       </c>
       <c r="K11">
-        <v>0.7573092026143726</v>
+        <v>0.7573092026143939</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.444929235893539</v>
+        <v>4.444929235893596</v>
       </c>
       <c r="C12">
-        <v>0.6176820635704701</v>
+        <v>0.6176820635703848</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5601342546265542</v>
+        <v>0.5601342546265755</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.085081639748992</v>
+        <v>1.085081639748964</v>
       </c>
       <c r="K12">
-        <v>0.7803957025477359</v>
+        <v>0.7803957025477217</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.417323746177772</v>
+        <v>4.417323746177829</v>
       </c>
       <c r="C13">
-        <v>0.6139357335156603</v>
+        <v>0.6139357335157456</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5565449630219845</v>
+        <v>0.5565449630219135</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>4.159691118681252</v>
+        <v>4.159691118681309</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.078332636624808</v>
+        <v>1.07833263662485</v>
       </c>
       <c r="K13">
-        <v>0.7754026228512103</v>
+        <v>0.7754026228511961</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.327675989275747</v>
+        <v>4.327675989275804</v>
       </c>
       <c r="C14">
-        <v>0.6017701850216781</v>
+        <v>0.6017701850215929</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5448997975990864</v>
+        <v>0.5448997975990508</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.081281312264679</v>
+        <v>4.081281312264707</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.056415401869202</v>
+        <v>1.056415401869188</v>
       </c>
       <c r="K14">
-        <v>0.7591992167192032</v>
+        <v>0.7591992167192245</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>4.273048314529774</v>
       </c>
       <c r="C15">
-        <v>0.5943572961321308</v>
+        <v>0.5943572961321877</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5378119159926555</v>
+        <v>0.5378119159926271</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.033603693866212</v>
+        <v>4.033603693866183</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.043059822020183</v>
+        <v>1.043059822020155</v>
       </c>
       <c r="K15">
-        <v>0.7493340841662786</v>
+        <v>0.7493340841662857</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.96405422654783</v>
+        <v>3.964054226547887</v>
       </c>
       <c r="C16">
-        <v>0.5524281489593932</v>
+        <v>0.5524281489596774</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4978380101040045</v>
+        <v>0.4978380101039619</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.765408623990908</v>
+        <v>3.765408623990936</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9675128899175007</v>
+        <v>0.9675128899175149</v>
       </c>
       <c r="K16">
         <v>0.6936550833636304</v>
@@ -985,13 +985,13 @@
         <v>3.777808315272011</v>
       </c>
       <c r="C17">
-        <v>0.5271524807689332</v>
+        <v>0.5271524807694448</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4738413075643422</v>
+        <v>0.4738413075643919</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1009,7 +1009,7 @@
         <v>0.9219733123187694</v>
       </c>
       <c r="K17">
-        <v>0.6601944110423545</v>
+        <v>0.6601944110423261</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.671787920464794</v>
+        <v>3.671787920464851</v>
       </c>
       <c r="C18">
-        <v>0.5127619086792947</v>
+        <v>0.5127619086795221</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4602143324001631</v>
+        <v>0.4602143324001915</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>3.514136247311882</v>
+        <v>3.514136247311825</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8960481380281493</v>
+        <v>0.8960481380281351</v>
       </c>
       <c r="K18">
-        <v>0.6411804162531922</v>
+        <v>0.6411804162531851</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>3.63607059882122</v>
       </c>
       <c r="C19">
-        <v>0.5079133223024428</v>
+        <v>0.5079133223026986</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4556289778352109</v>
+        <v>0.4556289778352607</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>3.48359448657078</v>
+        <v>3.483594486570752</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8873138343393805</v>
+        <v>0.8873138343393663</v>
       </c>
       <c r="K19">
-        <v>0.6347802384482577</v>
+        <v>0.6347802384482648</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.476377268225697</v>
+        <v>0.4763772682257041</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1123,7 +1123,7 @@
         <v>0.926792735559772</v>
       </c>
       <c r="K20">
-        <v>0.6637318546393942</v>
+        <v>0.6637318546393729</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>4.353947740903948</v>
       </c>
       <c r="C21">
-        <v>0.6053352919601878</v>
+        <v>0.6053352919596762</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5483107435591279</v>
+        <v>0.5483107435591492</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.104238230473101</v>
+        <v>4.104238230473044</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.062838384823365</v>
+        <v>1.06283838482338</v>
       </c>
       <c r="K21">
-        <v>0.7639459019194135</v>
+        <v>0.7639459019194348</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.730009791376403</v>
+        <v>4.73000979137646</v>
       </c>
       <c r="C22">
-        <v>0.6563767692381646</v>
+        <v>0.6563767692382498</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5972928685003609</v>
+        <v>0.5972928685004035</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.154778159017198</v>
+        <v>1.15477815901717</v>
       </c>
       <c r="K22">
         <v>0.832056113036046</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.528024694258988</v>
+        <v>4.528024694259045</v>
       </c>
       <c r="C23">
-        <v>0.6289594785472161</v>
+        <v>0.6289594785471593</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>0.570947936729354</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>4.256799054685615</v>
+        <v>4.256799054685587</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.105396803850709</v>
+        <v>1.105396803850695</v>
       </c>
       <c r="K23">
-        <v>0.7954354132781134</v>
+        <v>0.7954354132781205</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.788603922306436</v>
+        <v>3.788603922306208</v>
       </c>
       <c r="C24">
-        <v>0.5286176955806923</v>
+        <v>0.5286176955802091</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4752302380825597</v>
+        <v>0.4752302380825455</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.170038921572882</v>
       </c>
       <c r="G24">
-        <v>3.614279827682367</v>
+        <v>3.61427982768231</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.924613083133238</v>
+        <v>0.9246130831332522</v>
       </c>
       <c r="K24">
-        <v>0.6621318875165869</v>
+        <v>0.6621318875165798</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.032216829129879</v>
+        <v>3.032216829129936</v>
       </c>
       <c r="C25">
-        <v>0.4258731338243535</v>
+        <v>0.425873133824382</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3785306255834158</v>
+        <v>0.3785306255835295</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.973025758671241</v>
+        <v>2.973025758671227</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7396110490151031</v>
+        <v>0.7396110490150818</v>
       </c>
       <c r="K25">
-        <v>0.5269929127220792</v>
+        <v>0.5269929127221076</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.499778317378514</v>
+        <v>2.499778317378571</v>
       </c>
       <c r="C2">
-        <v>0.3533471044013936</v>
+        <v>0.3533471044015926</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3112398725304573</v>
+        <v>0.3112398725305141</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6092879672127793</v>
+        <v>0.6092879672127509</v>
       </c>
       <c r="K2">
-        <v>0.4326082992677129</v>
+        <v>0.4326082992677271</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.149834911921232</v>
+        <v>2.149834911921118</v>
       </c>
       <c r="C3">
-        <v>0.3055124922076971</v>
+        <v>0.3055124922079528</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2673881678357404</v>
+        <v>0.2673881678357901</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.249025814377845</v>
+        <v>2.249025814377802</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5235613816452371</v>
+        <v>0.52356138164523</v>
       </c>
       <c r="K3">
-        <v>0.370911273381104</v>
+        <v>0.3709112733810613</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.939128683939401</v>
+        <v>1.93912868393943</v>
       </c>
       <c r="C4">
-        <v>0.276617866418789</v>
+        <v>0.2766178664188033</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2411372339315605</v>
+        <v>0.2411372339315037</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.080684706423085</v>
+        <v>2.080684706423071</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4719055154228258</v>
+        <v>0.4719055154228187</v>
       </c>
       <c r="K4">
-        <v>0.3338926175229204</v>
+        <v>0.333892617522892</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.854151090323398</v>
+        <v>1.854151090323256</v>
       </c>
       <c r="C5">
-        <v>0.264940117058643</v>
+        <v>0.2649401170588703</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2305843411120208</v>
+        <v>0.2305843411120421</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>2.013363109980801</v>
+        <v>2.013363109980816</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4510626922775032</v>
+        <v>0.4510626922775174</v>
       </c>
       <c r="K5">
-        <v>0.3189908719868555</v>
+        <v>0.3189908719868413</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,16 +567,16 @@
         <v>1.840089844932123</v>
       </c>
       <c r="C6">
-        <v>0.263006280879523</v>
+        <v>0.2630062808792815</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2288400921794249</v>
+        <v>0.2288400921794107</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
         <v>2.00225646075809</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4476132117541312</v>
+        <v>0.4476132117541241</v>
       </c>
       <c r="K6">
         <v>0.3165266274158043</v>
@@ -602,10 +602,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937979253975726</v>
+        <v>1.937979253975612</v>
       </c>
       <c r="C7">
-        <v>0.2764600114384024</v>
+        <v>0.2764600114379192</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>0.2409943596640289</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.079771842810317</v>
+        <v>2.079771842810331</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.471623631100492</v>
+        <v>0.4716236311004778</v>
       </c>
       <c r="K7">
-        <v>0.333690945489451</v>
+        <v>0.3336909454894226</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,19 +643,19 @@
         <v>2.378153025180382</v>
       </c>
       <c r="C8">
-        <v>0.3367404822468814</v>
+        <v>0.3367404822471087</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2959640040524292</v>
+        <v>0.2959640040525215</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.43355946605314</v>
+        <v>2.433559466053126</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5795009559058428</v>
+        <v>0.5795009559058286</v>
       </c>
       <c r="K8">
-        <v>0.4111346146558077</v>
+        <v>0.4111346146558503</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282550886467561</v>
+        <v>3.282550886467675</v>
       </c>
       <c r="C9">
-        <v>0.4599027810035352</v>
+        <v>0.4599027810035636</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4103944151079872</v>
+        <v>0.4103944151079659</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.183328114570159</v>
+        <v>3.183328114570173</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8008525203558747</v>
+        <v>0.8008525203558889</v>
       </c>
       <c r="K9">
-        <v>0.5715816983673108</v>
+        <v>0.571581698367325</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,19 +719,19 @@
         <v>3.985463700247635</v>
       </c>
       <c r="C10">
-        <v>0.5553334206649367</v>
+        <v>0.5553334206647378</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5006012211488056</v>
+        <v>0.5006012211488411</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.783908379009404</v>
+        <v>3.783908379009375</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9727475727246997</v>
+        <v>0.9727475727247139</v>
       </c>
       <c r="K10">
-        <v>0.6975062847167308</v>
+        <v>0.697506284716674</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.317212909193984</v>
+        <v>4.31721290919387</v>
       </c>
       <c r="C11">
-        <v>0.6003503471078488</v>
+        <v>0.6003503471069962</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5435417425484985</v>
+        <v>0.5435417425484061</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.072143393218568</v>
+        <v>4.072143393218539</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.053857356393792</v>
+        <v>1.053857356393777</v>
       </c>
       <c r="K11">
-        <v>0.7573092026143939</v>
+        <v>0.7573092026143726</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.444929235893596</v>
+        <v>4.444929235893539</v>
       </c>
       <c r="C12">
-        <v>0.6176820635703848</v>
+        <v>0.6176820635704701</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5601342546265755</v>
+        <v>0.5601342546265542</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.085081639748964</v>
+        <v>1.085081639748992</v>
       </c>
       <c r="K12">
-        <v>0.7803957025477217</v>
+        <v>0.7803957025477359</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.417323746177829</v>
+        <v>4.417323746177772</v>
       </c>
       <c r="C13">
-        <v>0.6139357335157456</v>
+        <v>0.6139357335156603</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5565449630219135</v>
+        <v>0.5565449630219845</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.159691118681309</v>
+        <v>4.159691118681252</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.07833263662485</v>
+        <v>1.078332636624808</v>
       </c>
       <c r="K13">
-        <v>0.7754026228511961</v>
+        <v>0.7754026228512103</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.327675989275804</v>
+        <v>4.327675989275747</v>
       </c>
       <c r="C14">
-        <v>0.6017701850215929</v>
+        <v>0.6017701850216781</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5448997975990508</v>
+        <v>0.5448997975990864</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.081281312264707</v>
+        <v>4.081281312264679</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.056415401869188</v>
+        <v>1.056415401869202</v>
       </c>
       <c r="K14">
-        <v>0.7591992167192245</v>
+        <v>0.7591992167192032</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>4.273048314529774</v>
       </c>
       <c r="C15">
-        <v>0.5943572961321877</v>
+        <v>0.5943572961321308</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5378119159926271</v>
+        <v>0.5378119159926555</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.033603693866183</v>
+        <v>4.033603693866212</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.043059822020155</v>
+        <v>1.043059822020183</v>
       </c>
       <c r="K15">
-        <v>0.7493340841662857</v>
+        <v>0.7493340841662786</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.964054226547887</v>
+        <v>3.96405422654783</v>
       </c>
       <c r="C16">
-        <v>0.5524281489596774</v>
+        <v>0.5524281489593932</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4978380101039619</v>
+        <v>0.4978380101040045</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.765408623990936</v>
+        <v>3.765408623990908</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9675128899175149</v>
+        <v>0.9675128899175007</v>
       </c>
       <c r="K16">
         <v>0.6936550833636304</v>
@@ -985,13 +985,13 @@
         <v>3.777808315272011</v>
       </c>
       <c r="C17">
-        <v>0.5271524807694448</v>
+        <v>0.5271524807689332</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4738413075643919</v>
+        <v>0.4738413075643422</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
@@ -1009,7 +1009,7 @@
         <v>0.9219733123187694</v>
       </c>
       <c r="K17">
-        <v>0.6601944110423261</v>
+        <v>0.6601944110423545</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.671787920464851</v>
+        <v>3.671787920464794</v>
       </c>
       <c r="C18">
-        <v>0.5127619086795221</v>
+        <v>0.5127619086792947</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4602143324001915</v>
+        <v>0.4602143324001631</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.514136247311825</v>
+        <v>3.514136247311882</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8960481380281351</v>
+        <v>0.8960481380281493</v>
       </c>
       <c r="K18">
-        <v>0.6411804162531851</v>
+        <v>0.6411804162531922</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1061,19 +1061,19 @@
         <v>3.63607059882122</v>
       </c>
       <c r="C19">
-        <v>0.5079133223026986</v>
+        <v>0.5079133223024428</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4556289778352607</v>
+        <v>0.4556289778352109</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>3.483594486570752</v>
+        <v>3.48359448657078</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,10 +1082,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8873138343393663</v>
+        <v>0.8873138343393805</v>
       </c>
       <c r="K19">
-        <v>0.6347802384482648</v>
+        <v>0.6347802384482577</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4763772682257041</v>
+        <v>0.476377268225697</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
@@ -1123,7 +1123,7 @@
         <v>0.926792735559772</v>
       </c>
       <c r="K20">
-        <v>0.6637318546393729</v>
+        <v>0.6637318546393942</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,19 +1137,19 @@
         <v>4.353947740903948</v>
       </c>
       <c r="C21">
-        <v>0.6053352919596762</v>
+        <v>0.6053352919601878</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5483107435591492</v>
+        <v>0.5483107435591279</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.104238230473044</v>
+        <v>4.104238230473101</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.06283838482338</v>
+        <v>1.062838384823365</v>
       </c>
       <c r="K21">
-        <v>0.7639459019194348</v>
+        <v>0.7639459019194135</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.73000979137646</v>
+        <v>4.730009791376403</v>
       </c>
       <c r="C22">
-        <v>0.6563767692382498</v>
+        <v>0.6563767692381646</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5972928685004035</v>
+        <v>0.5972928685003609</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.15477815901717</v>
+        <v>1.154778159017198</v>
       </c>
       <c r="K22">
         <v>0.832056113036046</v>
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.528024694259045</v>
+        <v>4.528024694258988</v>
       </c>
       <c r="C23">
-        <v>0.6289594785471593</v>
+        <v>0.6289594785472161</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1222,10 +1222,10 @@
         <v>0.570947936729354</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>4.256799054685587</v>
+        <v>4.256799054685615</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.105396803850695</v>
+        <v>1.105396803850709</v>
       </c>
       <c r="K23">
-        <v>0.7954354132781205</v>
+        <v>0.7954354132781134</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.788603922306208</v>
+        <v>3.788603922306436</v>
       </c>
       <c r="C24">
-        <v>0.5286176955802091</v>
+        <v>0.5286176955806923</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4752302380825455</v>
+        <v>0.4752302380825597</v>
       </c>
       <c r="F24">
-        <v>2.170038921572882</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>3.61427982768231</v>
+        <v>3.614279827682367</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.9246130831332522</v>
+        <v>0.924613083133238</v>
       </c>
       <c r="K24">
-        <v>0.6621318875165798</v>
+        <v>0.6621318875165869</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.032216829129936</v>
+        <v>3.032216829129879</v>
       </c>
       <c r="C25">
-        <v>0.425873133824382</v>
+        <v>0.4258731338243535</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3785306255835295</v>
+        <v>0.3785306255834158</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.973025758671227</v>
+        <v>2.973025758671241</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7396110490150818</v>
+        <v>0.7396110490151031</v>
       </c>
       <c r="K25">
-        <v>0.5269929127221076</v>
+        <v>0.5269929127220792</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.499778317378571</v>
+        <v>2.499590524166535</v>
       </c>
       <c r="C2">
-        <v>0.3533471044015926</v>
+        <v>0.3532665585030372</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3112398725305141</v>
+        <v>0.3112279888455376</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>2.532702939738343</v>
+        <v>0.813739839018524</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.70886487672378</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6092879672127509</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4326082992677271</v>
+        <v>0.6092272883487269</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.432585138251028</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.149834911921118</v>
+        <v>2.149730393488426</v>
       </c>
       <c r="C3">
-        <v>0.3055124922079528</v>
+        <v>0.3054623292639462</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2673881678357901</v>
+        <v>0.2673811700044126</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>2.249025814377802</v>
+        <v>0.7167188208487403</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.524068235813402</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.52356138164523</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3709112733810613</v>
+        <v>0.5235263288860779</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.3708981523502644</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.93912868393943</v>
+        <v>1.939064652207321</v>
       </c>
       <c r="C4">
-        <v>0.2766178664188033</v>
+        <v>0.2765843315958563</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2411372339315037</v>
+        <v>0.2411327111784729</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>2.080684706423071</v>
+        <v>0.6590624128219815</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.414502234383392</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4719055154228187</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.333892617522892</v>
+        <v>0.4718833700241305</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3338844261608287</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.854151090323256</v>
+        <v>1.854101263557794</v>
       </c>
       <c r="C5">
-        <v>0.2649401170588703</v>
+        <v>0.2649129279086253</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2305843411120421</v>
+        <v>0.2305807233576616</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>2.013363109980816</v>
+        <v>0.6359848173494669</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.370709408722135</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.4510626922775174</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3189908719868413</v>
+        <v>0.4510451984065185</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3189844321431465</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.840089844932123</v>
+        <v>1.840042248556045</v>
       </c>
       <c r="C6">
-        <v>0.2630062808792815</v>
+        <v>0.2629801215489351</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2288400921794107</v>
+        <v>0.2288366191763203</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>2.00225646075809</v>
+        <v>0.6321762935049406</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.363485946032498</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4476132117541241</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3165266274158043</v>
+        <v>0.4475964562600225</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3165204642629647</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937979253975612</v>
+        <v>1.937915422636223</v>
       </c>
       <c r="C7">
-        <v>0.2764600114379192</v>
+        <v>0.2764265638410279</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2409943596640289</v>
+        <v>0.2409898495017799</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>2.079771842810331</v>
+        <v>0.6587495680418272</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.413908317956228</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4716236311004778</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3336909454894226</v>
+        <v>0.4716015507715809</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3336827787267822</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.378153025180382</v>
+        <v>2.377996402522399</v>
       </c>
       <c r="C8">
-        <v>0.3367404822471087</v>
+        <v>0.3366708843655317</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2959640040525215</v>
+        <v>0.2959539327097218</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>2.433559466053126</v>
+        <v>0.7798491932501008</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.644258664748932</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.5795009559058286</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4111346146558503</v>
+        <v>0.5794497661332514</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4111152065646948</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282550886467675</v>
+        <v>3.282107140899541</v>
       </c>
       <c r="C9">
-        <v>0.4599027810035636</v>
+        <v>0.4597419553772966</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.4103944151079659</v>
+        <v>0.410367657268381</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>3.183328114570173</v>
+        <v>1.035772985911478</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.133280035835284</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.8008525203558889</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.571581698367325</v>
+        <v>0.8007162810401312</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.5715274926842255</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.985463700247635</v>
+        <v>3.984709096467327</v>
       </c>
       <c r="C10">
-        <v>0.5553334206647378</v>
+        <v>0.5550858896707496</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5006012211488411</v>
+        <v>0.5005557124147515</v>
       </c>
       <c r="F10">
         <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>3.783908379009375</v>
+        <v>1.240291179060279</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.52555845389054</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.9727475727247139</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.697506284716674</v>
+        <v>0.9725222539757823</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.6974134622374848</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.31721290919387</v>
+        <v>4.316284512283687</v>
       </c>
       <c r="C11">
-        <v>0.6003503471069962</v>
+        <v>0.6000569530278028</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5435417425484061</v>
+        <v>0.5434853435589346</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>4.072143393218539</v>
+        <v>1.338331305808538</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.713953568969629</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.053857356393777</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7573092026143726</v>
+        <v>1.053582900374664</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.7571943408602806</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.444929235893539</v>
+        <v>4.44392919494129</v>
       </c>
       <c r="C12">
-        <v>0.6176820635704701</v>
+        <v>0.6173701452413241</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5601342546265542</v>
+        <v>0.5600732818154057</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>4.183877687339788</v>
+        <v>1.376319385561033</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.787004193764886</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.085081639748992</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7803957025477359</v>
+        <v>1.084787026156775</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.7802716658891597</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.417323746177772</v>
+        <v>4.416339416378889</v>
       </c>
       <c r="C13">
-        <v>0.6139357335156603</v>
+        <v>0.6136278605032146</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5565449630219845</v>
+        <v>0.5564849973932411</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>4.159691118681252</v>
+        <v>1.368097069142891</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.771190424426493</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.078332636624808</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7754026228512103</v>
+        <v>1.078042439082964</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.7752806025721384</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.327675989275747</v>
+        <v>4.326741822848078</v>
       </c>
       <c r="C14">
-        <v>0.6017701850216781</v>
+        <v>0.6014752916676684</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5448997975990864</v>
+        <v>0.5448430320864333</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>4.081281312264679</v>
+        <v>1.34143841550042</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.719927451284605</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.056415401869202</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7591992167192032</v>
+        <v>1.056139320608125</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.7590836180075229</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.273048314529774</v>
+        <v>4.272144075171184</v>
       </c>
       <c r="C15">
-        <v>0.5943572961321308</v>
+        <v>0.5940701946379363</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5378119159926555</v>
+        <v>0.5377570482141678</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>4.033603693866212</v>
+        <v>1.325226199876681</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.688759150679914</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.043059822020183</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7493340841662786</v>
+        <v>1.042792174925481</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.7492223044787139</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.96405422654783</v>
+        <v>3.963310234843561</v>
       </c>
       <c r="C16">
-        <v>0.5524281489593932</v>
+        <v>0.5521834672891259</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4978380101040045</v>
+        <v>0.4977931568427181</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>3.765408623990908</v>
+        <v>1.23399637537338</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.513469317843231</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.9675128899175007</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6936550833636304</v>
+        <v>0.9672905841060242</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.6935635964299536</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.777808315272011</v>
+        <v>3.777153585840836</v>
       </c>
       <c r="C17">
-        <v>0.5271524807689332</v>
+        <v>0.5269320281403225</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4738413075643422</v>
+        <v>0.4738019242277005</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>3.605008787276574</v>
+        <v>1.179405608162682</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.408666144116154</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.9219733123187694</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.6601944110423545</v>
+        <v>0.9217764164068143</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.6601141102559112</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.671787920464794</v>
+        <v>3.671181569249768</v>
       </c>
       <c r="C18">
-        <v>0.5127619086792947</v>
+        <v>0.5125548044164248</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4602143324001631</v>
+        <v>0.4601778812430908</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>3.514136247311882</v>
+        <v>1.148467569275624</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2.349303006331638</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.8960481380281493</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6411804162531922</v>
+        <v>0.8958650688345955</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.6411061421271427</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.63607059882122</v>
+        <v>3.635480150070691</v>
       </c>
       <c r="C19">
-        <v>0.5079133223024428</v>
+        <v>0.5077106429146454</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4556289778352109</v>
+        <v>0.4555934855838402</v>
       </c>
       <c r="F19">
         <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>3.48359448657078</v>
+        <v>1.13806771521547</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2.329353391768279</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.8873138343393805</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6347802384482577</v>
+        <v>0.8871353195457488</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.634707939773989</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.797517871698972</v>
+        <v>3.796853954434141</v>
       </c>
       <c r="C20">
-        <v>0.5298275113800344</v>
+        <v>0.5296045418571111</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.476377268225697</v>
+        <v>0.4763373254527679</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>3.621937412788725</v>
+        <v>1.18516820615497</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.419725855831729</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.926792735559772</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.6637318546393942</v>
+        <v>0.9265932183365635</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.663650406414412</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.353947740903948</v>
+        <v>4.352999009411519</v>
       </c>
       <c r="C21">
-        <v>0.6053352919601878</v>
+        <v>0.6050366197082155</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5483107435591279</v>
+        <v>0.548253051350521</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>4.104238230473101</v>
+        <v>1.349244038390935</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.734935762702662</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>1.062838384823365</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7639459019194135</v>
+        <v>1.062558202214916</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.7638284412803031</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.730009791376403</v>
+        <v>4.72884014411494</v>
       </c>
       <c r="C22">
-        <v>0.6563767692381646</v>
+        <v>0.6560217247820219</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5972928685003609</v>
+        <v>0.5972208761344362</v>
       </c>
       <c r="F22">
         <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>4.434777525766805</v>
+        <v>1.461589566639191</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.951075350883514</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.154778159017198</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.832056113036046</v>
+        <v>1.15443601474152</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.831910156264712</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.528024694258988</v>
+        <v>4.52697660614615</v>
       </c>
       <c r="C23">
-        <v>0.6289594785472161</v>
+        <v>0.6286352448844639</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.570947936729354</v>
+        <v>0.5708838693775675</v>
       </c>
       <c r="F23">
         <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>4.256799054685615</v>
+        <v>1.401106749865875</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.834684774476216</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.105396803850709</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7954354132781134</v>
+        <v>1.105088699815823</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.7953051951534178</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.788603922306436</v>
+        <v>3.787944167932892</v>
       </c>
       <c r="C24">
-        <v>0.5286176955806923</v>
+        <v>0.5283958657378491</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4752302380825597</v>
+        <v>0.4751905488848394</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>3.614279827682367</v>
+        <v>1.182561553982509</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.414723009682859</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.924613083133238</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.6621318875165869</v>
+        <v>0.9244147534173379</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.6620509592948665</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.032216829129879</v>
+        <v>3.031865270317098</v>
       </c>
       <c r="C25">
-        <v>0.4258731338243535</v>
+        <v>0.4257398305938409</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3785306255834158</v>
+        <v>0.3785092619213373</v>
       </c>
       <c r="F25">
         <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>2.973025758671241</v>
+        <v>0.964067386509484</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.996022540732938</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.7396110490151031</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5269929127220792</v>
+        <v>0.7395016807080594</v>
       </c>
       <c r="L25">
+        <v>0.526949957343426</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.499590524166535</v>
+        <v>3.952610412301055</v>
       </c>
       <c r="C2">
-        <v>0.3532665585030372</v>
+        <v>1.082023745273943</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3112279888455376</v>
+        <v>0.03538385495789864</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>2.725580858400036</v>
       </c>
       <c r="G2">
-        <v>0.813739839018524</v>
+        <v>0.0007837119114111203</v>
       </c>
       <c r="H2">
-        <v>1.70886487672378</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.08374895795807902</v>
       </c>
       <c r="K2">
-        <v>0.6092272883487269</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.432585138251028</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.8507639445483619</v>
+      </c>
+      <c r="N2">
+        <v>1.166248101515791</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.149730393488426</v>
+        <v>3.407054645634105</v>
       </c>
       <c r="C3">
-        <v>0.3054623292639462</v>
+        <v>0.9289690478058787</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2673811700044126</v>
+        <v>0.03374689163745437</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>2.464675682874386</v>
       </c>
       <c r="G3">
-        <v>0.7167188208487403</v>
+        <v>0.0007940683076002028</v>
       </c>
       <c r="H3">
-        <v>1.524068235813402</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07975087629211686</v>
       </c>
       <c r="K3">
-        <v>0.5235263288860779</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3708981523502644</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.7393664318605246</v>
+      </c>
+      <c r="N3">
+        <v>1.188556337347933</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.939064652207321</v>
+        <v>3.079349178949371</v>
       </c>
       <c r="C4">
-        <v>0.2765843315958563</v>
+        <v>0.8370247766540047</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2411327111784729</v>
+        <v>0.03278395009919599</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>2.310360625325629</v>
       </c>
       <c r="G4">
-        <v>0.6590624128219815</v>
+        <v>0.0008005683193159811</v>
       </c>
       <c r="H4">
-        <v>1.414502234383392</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0775410272091186</v>
       </c>
       <c r="K4">
-        <v>0.4718833700241305</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3338844261608287</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.6722921919225655</v>
+      </c>
+      <c r="N4">
+        <v>1.204491711752297</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.854101263557794</v>
+        <v>2.947372191826787</v>
       </c>
       <c r="C5">
-        <v>0.2649129279086253</v>
+        <v>0.7999898720225076</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2305807233576616</v>
+        <v>0.03240059309503529</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>2.248799937652137</v>
       </c>
       <c r="G5">
-        <v>0.6359848173494669</v>
+        <v>0.0008032553064757014</v>
       </c>
       <c r="H5">
-        <v>1.370709408722135</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07669584272377605</v>
       </c>
       <c r="K5">
-        <v>0.4510451984065185</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3189844321431465</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.6452483965375251</v>
+      </c>
+      <c r="N5">
+        <v>1.211507439318154</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.840042248556045</v>
+        <v>2.925544908035647</v>
       </c>
       <c r="C6">
-        <v>0.2629801215489351</v>
+        <v>0.7938642887472724</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2288366191763203</v>
+        <v>0.03233744281094975</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>2.23865353738671</v>
       </c>
       <c r="G6">
-        <v>0.6321762935049406</v>
+        <v>0.00080370385846519</v>
       </c>
       <c r="H6">
-        <v>1.363485946032498</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07655867279902751</v>
       </c>
       <c r="K6">
-        <v>0.4475964562600225</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3165204642629647</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.6407740858909392</v>
+      </c>
+      <c r="N6">
+        <v>1.212702802012316</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.937915422636223</v>
+        <v>3.077563279197363</v>
       </c>
       <c r="C7">
-        <v>0.2764265638410279</v>
+        <v>0.8365236543439494</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2409898495017799</v>
+        <v>0.03277874524285718</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>2.309525230085399</v>
       </c>
       <c r="G7">
-        <v>0.6587495680418272</v>
+        <v>0.0008006043990338958</v>
       </c>
       <c r="H7">
-        <v>1.413908317956228</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0775294124483068</v>
       </c>
       <c r="K7">
-        <v>0.4716015507715809</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3336827787267822</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.6719263521702672</v>
+      </c>
+      <c r="N7">
+        <v>1.204584266019083</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.377996402522399</v>
+        <v>3.762828010249621</v>
       </c>
       <c r="C8">
-        <v>0.3366708843655317</v>
+        <v>1.028779295070478</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2959539327097218</v>
+        <v>0.03480966225017745</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>2.634301831159675</v>
       </c>
       <c r="G8">
-        <v>0.7798491932501008</v>
+        <v>0.0007872552052089477</v>
       </c>
       <c r="H8">
-        <v>1.644258664748932</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.08231558786791737</v>
       </c>
       <c r="K8">
-        <v>0.5794497661332514</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4111152065646948</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.8120516783743739</v>
+      </c>
+      <c r="N8">
+        <v>1.173449567955373</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.282107140899541</v>
+        <v>5.177732981477163</v>
       </c>
       <c r="C9">
-        <v>0.4597419553772966</v>
+        <v>1.425917423120381</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.410367657268381</v>
+        <v>0.0392130075120809</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>3.325748350465716</v>
       </c>
       <c r="G9">
-        <v>1.035772985911478</v>
+        <v>0.0007620603137263552</v>
       </c>
       <c r="H9">
-        <v>2.133280035835284</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0939680004979806</v>
       </c>
       <c r="K9">
-        <v>0.8007162810401312</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5715274926842255</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.099562396143298</v>
+      </c>
+      <c r="N9">
+        <v>1.132238484588967</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.984709096467327</v>
+        <v>6.282308749428012</v>
       </c>
       <c r="C10">
-        <v>0.5550858896707496</v>
+        <v>1.736454049448184</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5005557124147515</v>
+        <v>0.04285705446011701</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>3.879644998429683</v>
       </c>
       <c r="G10">
-        <v>1.240291179060279</v>
+        <v>0.0007439286875485923</v>
       </c>
       <c r="H10">
-        <v>2.52555845389054</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1044369586069749</v>
       </c>
       <c r="K10">
-        <v>0.9725222539757823</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6974134622374848</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.322106765500564</v>
+      </c>
+      <c r="N10">
+        <v>1.11742033015085</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.316284512283687</v>
+        <v>6.80480158970596</v>
       </c>
       <c r="C11">
-        <v>0.6000569530278028</v>
+        <v>1.883564064298128</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.5434853435589346</v>
+        <v>0.04464988371853806</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>4.144967250968904</v>
       </c>
       <c r="G11">
-        <v>1.338331305808538</v>
+        <v>0.000735703319812082</v>
       </c>
       <c r="H11">
-        <v>2.713953568969629</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1097583552903956</v>
       </c>
       <c r="K11">
-        <v>1.053582900374664</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.7571943408602806</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.42675198859861</v>
+      </c>
+      <c r="N11">
+        <v>1.114948474356467</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.44392919494129</v>
+        <v>7.006125649030423</v>
       </c>
       <c r="C12">
-        <v>0.6173701452413241</v>
+        <v>1.940290202387416</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5600732818154057</v>
+        <v>0.04535333722985246</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>4.247694672555127</v>
       </c>
       <c r="G12">
-        <v>1.376319385561033</v>
+        <v>0.000732585938744867</v>
       </c>
       <c r="H12">
-        <v>2.787004193764886</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1118686136379381</v>
       </c>
       <c r="K12">
-        <v>1.084787026156775</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.7802716658891597</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.4669628463419</v>
+      </c>
+      <c r="N12">
+        <v>1.114718977409751</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.416339416378889</v>
+        <v>6.962602204112613</v>
       </c>
       <c r="C13">
-        <v>0.6136278605032146</v>
+        <v>1.928024720362032</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5564849973932411</v>
+        <v>0.0452006486483576</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>4.225464218112847</v>
       </c>
       <c r="G13">
-        <v>1.368097069142891</v>
+        <v>0.0007332575437137376</v>
       </c>
       <c r="H13">
-        <v>2.771190424426493</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.111409634438921</v>
       </c>
       <c r="K13">
-        <v>1.078042439082964</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.7752806025721384</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.458275085397744</v>
+      </c>
+      <c r="N13">
+        <v>1.11473532782324</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.326741822848078</v>
+        <v>6.821291407580588</v>
       </c>
       <c r="C14">
-        <v>0.6014752916676684</v>
+        <v>1.88820940524522</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5448430320864333</v>
+        <v>0.04470723135170473</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>4.153371369995341</v>
       </c>
       <c r="G14">
-        <v>1.34143841550042</v>
+        <v>0.0007354469408840662</v>
       </c>
       <c r="H14">
-        <v>2.719927451284605</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1099299658960788</v>
       </c>
       <c r="K14">
-        <v>1.056139320608125</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.7590836180075229</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.430047863724354</v>
+      </c>
+      <c r="N14">
+        <v>1.114914844183204</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.272144075171184</v>
+        <v>6.735205249336047</v>
       </c>
       <c r="C15">
-        <v>0.5940701946379363</v>
+        <v>1.863959879797562</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5377570482141678</v>
+        <v>0.04440836964034034</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>4.109517075852381</v>
       </c>
       <c r="G15">
-        <v>1.325226199876681</v>
+        <v>0.0007367874775088455</v>
       </c>
       <c r="H15">
-        <v>2.688759150679914</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1090365040673902</v>
       </c>
       <c r="K15">
-        <v>1.042792174925481</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.7492223044787139</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.412836973214581</v>
+      </c>
+      <c r="N15">
+        <v>1.115119843133627</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.963310234843561</v>
+        <v>6.248613480277299</v>
       </c>
       <c r="C16">
-        <v>0.5521834672891259</v>
+        <v>1.726972221044321</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.4977931568427181</v>
+        <v>0.04274301725024543</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>3.862601710132367</v>
       </c>
       <c r="G16">
-        <v>1.23399637537338</v>
+        <v>0.0007444662121981652</v>
       </c>
       <c r="H16">
-        <v>2.513469317843231</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.1041016444399503</v>
       </c>
       <c r="K16">
-        <v>0.9672905841060242</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6935635964299536</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.315344226461107</v>
+      </c>
+      <c r="N16">
+        <v>1.117675337433639</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.777153585840836</v>
+        <v>5.955620315880765</v>
       </c>
       <c r="C17">
-        <v>0.5269320281403225</v>
+        <v>1.644549200509914</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4738019242277005</v>
+        <v>0.04175925015761273</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>3.714769161761069</v>
       </c>
       <c r="G17">
-        <v>1.179405608162682</v>
+        <v>0.0007491788164508117</v>
       </c>
       <c r="H17">
-        <v>2.408666144116154</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1012271447808217</v>
       </c>
       <c r="K17">
-        <v>0.9217764164068143</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6601141102559112</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.256470796747948</v>
+      </c>
+      <c r="N17">
+        <v>1.120397528306611</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.671181569249768</v>
+        <v>5.788941780788377</v>
       </c>
       <c r="C18">
-        <v>0.5125548044164248</v>
+        <v>1.597679534431734</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.4601778812430908</v>
+        <v>0.04120576224584571</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>3.63097354453015</v>
       </c>
       <c r="G18">
-        <v>1.148467569275624</v>
+        <v>0.0007518919330651018</v>
       </c>
       <c r="H18">
-        <v>2.349303006331638</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.09962540006442566</v>
       </c>
       <c r="K18">
-        <v>0.8958650688345955</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.6411061421271427</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.222922777502589</v>
+      </c>
+      <c r="N18">
+        <v>1.122358686564283</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.635480150070691</v>
+        <v>5.732807536147561</v>
       </c>
       <c r="C19">
-        <v>0.5077106429146454</v>
+        <v>1.581897713949218</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.4555934855838402</v>
+        <v>0.04102034552755907</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>3.602804319839436</v>
       </c>
       <c r="G19">
-        <v>1.13806771521547</v>
+        <v>0.0007528111496514394</v>
       </c>
       <c r="H19">
-        <v>2.329353391768279</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.09909152984078418</v>
       </c>
       <c r="K19">
-        <v>0.8871353195457488</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.634707939773989</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.211615376512768</v>
+      </c>
+      <c r="N19">
+        <v>1.123088044668407</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.796853954434141</v>
+        <v>5.986615204406576</v>
       </c>
       <c r="C20">
-        <v>0.5296045418571111</v>
+        <v>1.653266410852382</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.4763373254527679</v>
+        <v>0.0418626626662606</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>3.730376239700433</v>
       </c>
       <c r="G20">
-        <v>1.18516820615497</v>
+        <v>0.0007486769271212057</v>
       </c>
       <c r="H20">
-        <v>2.419725855831729</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.101527702061027</v>
       </c>
       <c r="K20">
-        <v>0.9265932183365635</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.663650406414412</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.262704800359259</v>
+      </c>
+      <c r="N20">
+        <v>1.120066200329134</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.352999009411519</v>
+        <v>6.862698502370392</v>
       </c>
       <c r="C21">
-        <v>0.6050366197082155</v>
+        <v>1.899874899894598</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.548253051350521</v>
+        <v>0.04485144652060846</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>4.174482617400542</v>
       </c>
       <c r="G21">
-        <v>1.349244038390935</v>
+        <v>0.0007348039848025234</v>
       </c>
       <c r="H21">
-        <v>2.734935762702662</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.1103618663280344</v>
       </c>
       <c r="K21">
-        <v>1.062558202214916</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.7638284412803031</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.438322209354027</v>
+      </c>
+      <c r="N21">
+        <v>1.114842120604706</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.72884014411494</v>
+        <v>7.455832511026983</v>
       </c>
       <c r="C22">
-        <v>0.6560217247820219</v>
+        <v>2.067093221574282</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.5972208761344362</v>
+        <v>0.04695125936080569</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>4.478077773571869</v>
       </c>
       <c r="G22">
-        <v>1.461589566639191</v>
+        <v>0.0007257184690330856</v>
       </c>
       <c r="H22">
-        <v>2.951075350883514</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.116699146706857</v>
       </c>
       <c r="K22">
-        <v>1.15443601474152</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.831910156264712</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.556557567588271</v>
+      </c>
+      <c r="N22">
+        <v>1.115601700724952</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.52697660614615</v>
+        <v>7.137161427432261</v>
       </c>
       <c r="C23">
-        <v>0.6286352448844639</v>
+        <v>1.977224885098053</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.5708838693775675</v>
+        <v>0.04581509961007235</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>4.314696101926586</v>
       </c>
       <c r="G23">
-        <v>1.401106749865875</v>
+        <v>0.0007305715195777141</v>
       </c>
       <c r="H23">
-        <v>2.834684774476216</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1132596135929447</v>
       </c>
       <c r="K23">
-        <v>1.105088699815823</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.7953051951534178</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.493101413715095</v>
+      </c>
+      <c r="N23">
+        <v>1.11477931158386</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.787944167932892</v>
+        <v>5.972596954144478</v>
       </c>
       <c r="C24">
-        <v>0.5283958657378491</v>
+        <v>1.649323764510427</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.4751905488848394</v>
+        <v>0.04181587257018116</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>3.723316581339702</v>
       </c>
       <c r="G24">
-        <v>1.182561553982509</v>
+        <v>0.0007489038191281433</v>
       </c>
       <c r="H24">
-        <v>2.414723009682859</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1013916628278935</v>
       </c>
       <c r="K24">
-        <v>0.9244147534173379</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.6620509592948665</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.259885482574177</v>
+      </c>
+      <c r="N24">
+        <v>1.12021476664107</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.031865270317098</v>
+        <v>4.785297954973942</v>
       </c>
       <c r="C25">
-        <v>0.4257398305938409</v>
+        <v>1.315713627418688</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3785092619213373</v>
+        <v>0.03796302005154573</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>3.131651740637778</v>
       </c>
       <c r="G25">
-        <v>0.964067386509484</v>
+        <v>0.000768791875942876</v>
       </c>
       <c r="H25">
-        <v>1.996022540732938</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.0905235777937321</v>
       </c>
       <c r="K25">
-        <v>0.7395016807080594</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.526949957343426</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>1.020082767364094</v>
+      </c>
+      <c r="N25">
+        <v>1.140945093239381</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.952610412301055</v>
+        <v>2.47285606029169</v>
       </c>
       <c r="C2">
-        <v>1.082023745273943</v>
+        <v>0.5940255161627306</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.03538385495789864</v>
+        <v>0.2024834812720258</v>
       </c>
       <c r="F2">
-        <v>2.725580858400036</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007837119114111203</v>
+        <v>0.8415043921820597</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4872137017373035</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08374895795807902</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8507639445483619</v>
+        <v>0.9732701643834432</v>
       </c>
       <c r="N2">
-        <v>1.166248101515791</v>
+        <v>0.5030663947251401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.407054645634105</v>
+        <v>2.138386059269067</v>
       </c>
       <c r="C3">
-        <v>0.9289690478058787</v>
+        <v>0.5178918353107065</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03374689163745437</v>
+        <v>0.176409682001939</v>
       </c>
       <c r="F3">
-        <v>2.464675682874386</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007940683076002028</v>
+        <v>0.7457357288567721</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4511917113234887</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07975087629211686</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7393664318605246</v>
+        <v>0.8396202529469718</v>
       </c>
       <c r="N3">
-        <v>1.188556337347933</v>
+        <v>0.5482215219249218</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.079349178949371</v>
+        <v>1.934849565323702</v>
       </c>
       <c r="C4">
-        <v>0.8370247766540047</v>
+        <v>0.4714769165149164</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03278395009919599</v>
+        <v>0.160832218851013</v>
       </c>
       <c r="F4">
-        <v>2.310360625325629</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008005683193159811</v>
+        <v>0.6895016617189356</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4304908971622581</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0775410272091186</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6722921919225655</v>
+        <v>0.7586475120015521</v>
       </c>
       <c r="N4">
-        <v>1.204491711752297</v>
+        <v>0.5773083855858117</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.947372191826787</v>
+        <v>1.852288576948354</v>
       </c>
       <c r="C5">
-        <v>0.7999898720225076</v>
+        <v>0.4526275526324639</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.03240059309503529</v>
+        <v>0.1545801819175736</v>
       </c>
       <c r="F5">
-        <v>2.248799937652137</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0008032553064757014</v>
+        <v>0.6671670770571581</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4223815712539079</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07669584272377605</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6452483965375251</v>
+        <v>0.7258837323628597</v>
       </c>
       <c r="N5">
-        <v>1.211507439318154</v>
+        <v>0.5894891374880613</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.925544908035647</v>
+        <v>1.838600271471677</v>
       </c>
       <c r="C6">
-        <v>0.7938642887472724</v>
+        <v>0.4495010553030738</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03233744281094975</v>
+        <v>0.1535474756121431</v>
       </c>
       <c r="F6">
-        <v>2.23865353738671</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.00080370385846519</v>
+        <v>0.6634917454208846</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.4210539082341995</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07655867279902751</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6407740858909392</v>
+        <v>0.7204562948368718</v>
       </c>
       <c r="N6">
-        <v>1.212702802012316</v>
+        <v>0.5915311198577755</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.077563279197363</v>
+        <v>1.933734672242764</v>
       </c>
       <c r="C7">
-        <v>0.8365236543439494</v>
+        <v>0.4712224669228817</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03277874524285718</v>
+        <v>0.1607475294531397</v>
       </c>
       <c r="F7">
-        <v>2.309525230085399</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008006043990338958</v>
+        <v>0.6891981780771061</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4303802481183538</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0775294124483068</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6719263521702672</v>
+        <v>0.7582047550126774</v>
       </c>
       <c r="N7">
-        <v>1.204584266019083</v>
+        <v>0.577471351596289</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.762828010249621</v>
+        <v>2.357102023159939</v>
       </c>
       <c r="C8">
-        <v>1.028779295070478</v>
+        <v>0.5676943499726121</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03480966225017745</v>
+        <v>0.1933956034812425</v>
       </c>
       <c r="F8">
-        <v>2.634301831159675</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007872552052089477</v>
+        <v>0.8079098941494181</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.474480567564953</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08231558786791737</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8120516783743739</v>
+        <v>0.9269362532558816</v>
       </c>
       <c r="N8">
-        <v>1.173449567955373</v>
+        <v>0.5183441093915278</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.177732981477163</v>
+        <v>3.205736676411902</v>
       </c>
       <c r="C9">
-        <v>1.425917423120381</v>
+        <v>0.7604192503885372</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.0392130075120809</v>
+        <v>0.2614784852813798</v>
       </c>
       <c r="F9">
-        <v>3.325748350465716</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.0007620603137263552</v>
+        <v>1.064271594331643</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5736781152150741</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0939680004979806</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.099562396143298</v>
+        <v>1.268475898452607</v>
       </c>
       <c r="N9">
-        <v>1.132238484588967</v>
+        <v>0.413920176962602</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.282308749428012</v>
+        <v>3.84649655358578</v>
       </c>
       <c r="C10">
-        <v>1.736454049448184</v>
+        <v>0.9056001260875064</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.04285705446011701</v>
+        <v>0.3149572989043108</v>
       </c>
       <c r="F10">
-        <v>3.879644998429683</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>0.0007439286875485923</v>
+        <v>1.271906194728075</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6565850034391758</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1044369586069749</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.322106765500564</v>
+        <v>1.529035490298298</v>
       </c>
       <c r="N10">
-        <v>1.11742033015085</v>
+        <v>0.345330822202941</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.80480158970596</v>
+        <v>4.14327399238374</v>
       </c>
       <c r="C11">
-        <v>1.883564064298128</v>
+        <v>0.9727892541596646</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.04464988371853806</v>
+        <v>0.3402883879164662</v>
       </c>
       <c r="F11">
-        <v>4.144967250968904</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.000735703319812082</v>
+        <v>1.371797311684588</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6970545774822199</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1097583552903956</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.42675198859861</v>
+        <v>1.650458689751929</v>
       </c>
       <c r="N11">
-        <v>1.114948474356467</v>
+        <v>0.3161732558996371</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.006125649030423</v>
+        <v>4.2565608694199</v>
       </c>
       <c r="C12">
-        <v>1.940290202387416</v>
+        <v>0.9984312933121657</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.04535333722985246</v>
+        <v>0.3500488776041308</v>
       </c>
       <c r="F12">
-        <v>4.247694672555127</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.000732585938744867</v>
+        <v>1.410523422143996</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.712830159851336</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1118686136379381</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.4669628463419</v>
+        <v>1.696930045909994</v>
       </c>
       <c r="N12">
-        <v>1.114718977409751</v>
+        <v>0.3054527989206823</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.962602204112613</v>
+        <v>4.232119867893232</v>
       </c>
       <c r="C13">
-        <v>1.928024720362032</v>
+        <v>0.9928993807905613</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.0452006486483576</v>
+        <v>0.3479388900377529</v>
       </c>
       <c r="F13">
-        <v>4.225464218112847</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007332575437137376</v>
+        <v>1.40214103046614</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.7094116260352621</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.111409634438921</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.458275085397744</v>
+        <v>1.686898476983629</v>
       </c>
       <c r="N13">
-        <v>1.11473532782324</v>
+        <v>0.307746906684895</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.821291407580588</v>
+        <v>4.152575183069814</v>
       </c>
       <c r="C14">
-        <v>1.88820940524522</v>
+        <v>0.9748946410603878</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04470723135170473</v>
+        <v>0.3410878716453993</v>
       </c>
       <c r="F14">
-        <v>4.153371369995341</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0007354469408840662</v>
+        <v>1.374964580426479</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.698343077391371</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1099299658960788</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.430047863724354</v>
+        <v>1.65427161319252</v>
       </c>
       <c r="N14">
-        <v>1.114914844183204</v>
+        <v>0.3152846808609704</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.735205249336047</v>
+        <v>4.103973976118596</v>
       </c>
       <c r="C15">
-        <v>1.863959879797562</v>
+        <v>0.9638932191451204</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.04440836964034034</v>
+        <v>0.3369140838683862</v>
       </c>
       <c r="F15">
-        <v>4.109517075852381</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007367874775088455</v>
+        <v>1.35843909403863</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6916236855297768</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1090365040673902</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.412836973214581</v>
+        <v>1.634353043782184</v>
       </c>
       <c r="N15">
-        <v>1.115119843133627</v>
+        <v>0.3199444269691805</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.248613480277299</v>
+        <v>3.827219767635086</v>
       </c>
       <c r="C16">
-        <v>1.726972221044321</v>
+        <v>0.9012350431488585</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.04274301725024543</v>
+        <v>0.3133240165159563</v>
       </c>
       <c r="F16">
-        <v>3.862601710132367</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007444662121981652</v>
+        <v>1.265497230180813</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6540001692297039</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1041016444399503</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.315344226461107</v>
+        <v>1.521164625083813</v>
       </c>
       <c r="N16">
-        <v>1.117675337433639</v>
+        <v>0.3472797026188763</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.955620315880765</v>
+        <v>3.658891951760495</v>
       </c>
       <c r="C17">
-        <v>1.644549200509914</v>
+        <v>0.8631127711250315</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.04175925015761273</v>
+        <v>0.299125329345685</v>
       </c>
       <c r="F17">
-        <v>3.714769161761069</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007491788164508117</v>
+        <v>1.20995245292022</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6316617389894645</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1012271447808217</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.256470796747948</v>
+        <v>1.452518820808152</v>
       </c>
       <c r="N17">
-        <v>1.120397528306611</v>
+        <v>0.3645907572056304</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.788941780788377</v>
+        <v>3.562562942643694</v>
       </c>
       <c r="C18">
-        <v>1.597679534431734</v>
+        <v>0.8412913977535084</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04120576224584571</v>
+        <v>0.2910514632515984</v>
       </c>
       <c r="F18">
-        <v>3.63097354453015</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007518919330651018</v>
+        <v>1.178508522795397</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.6190689440339838</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09962540006442566</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.222922777502589</v>
+        <v>1.413302917527531</v>
       </c>
       <c r="N18">
-        <v>1.122358686564283</v>
+        <v>0.3747382296957302</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.732807536147561</v>
+        <v>3.530027449193142</v>
       </c>
       <c r="C19">
-        <v>1.581897713949218</v>
+        <v>0.8339202077353605</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04102034552755907</v>
+        <v>0.2883330563655093</v>
       </c>
       <c r="F19">
-        <v>3.602804319839436</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007528111496514394</v>
+        <v>1.167945338699354</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.6148475950823808</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09909152984078418</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.211615376512768</v>
+        <v>1.400068863307723</v>
       </c>
       <c r="N19">
-        <v>1.123088044668407</v>
+        <v>0.378205956146985</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.986615204406576</v>
+        <v>3.676759175959376</v>
       </c>
       <c r="C20">
-        <v>1.653266410852382</v>
+        <v>0.8671597933872022</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0418626626662606</v>
+        <v>0.3006270312620103</v>
       </c>
       <c r="F20">
-        <v>3.730376239700433</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007486769271212057</v>
+        <v>1.215812322975069</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.6340128666835199</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.101527702061027</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.262704800359259</v>
+        <v>1.459798099791143</v>
       </c>
       <c r="N20">
-        <v>1.120066200329134</v>
+        <v>0.3627280529819257</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.862698502370392</v>
+        <v>4.175913638107318</v>
       </c>
       <c r="C21">
-        <v>1.899874899894598</v>
+        <v>0.9801773753424072</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.04485144652060846</v>
+        <v>0.3430954128054964</v>
       </c>
       <c r="F21">
-        <v>4.174482617400542</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007348039848025234</v>
+        <v>1.38292154241924</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.701581481663851</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1103618663280344</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.438322209354027</v>
+        <v>1.663840944613327</v>
       </c>
       <c r="N21">
-        <v>1.114842120604706</v>
+        <v>0.3130617147248267</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.455832511026983</v>
+        <v>4.50748625376184</v>
       </c>
       <c r="C22">
-        <v>2.067093221574282</v>
+        <v>1.055219767738265</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.04695125936080569</v>
+        <v>0.3718444412507651</v>
       </c>
       <c r="F22">
-        <v>4.478077773571869</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007257184690330856</v>
+        <v>1.497445263280866</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7483982869424608</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.116699146706857</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.556557567588271</v>
+        <v>1.800098476950083</v>
       </c>
       <c r="N22">
-        <v>1.115601700724952</v>
+        <v>0.2824871110814624</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.137161427432261</v>
+        <v>4.32997885175115</v>
       </c>
       <c r="C23">
-        <v>1.977224885098053</v>
+        <v>1.015047903474255</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.04581509961007235</v>
+        <v>0.3564009389856437</v>
       </c>
       <c r="F23">
-        <v>4.314696101926586</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007305715195777141</v>
+        <v>1.435793445623432</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.7231484219629749</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1132596135929447</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.493101413715095</v>
+        <v>1.727082341890977</v>
       </c>
       <c r="N23">
-        <v>1.11477931158386</v>
+        <v>0.2986230993607024</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.972596954144478</v>
+        <v>3.668680028717858</v>
       </c>
       <c r="C24">
-        <v>1.649323764510427</v>
+        <v>0.8653298392929685</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.04181587257018116</v>
+        <v>0.2999478359148569</v>
       </c>
       <c r="F24">
-        <v>3.723316581339702</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.0007489038191281433</v>
+        <v>1.213161559749011</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.6329491476127771</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1013916628278935</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.259885482574177</v>
+        <v>1.456506366224573</v>
       </c>
       <c r="N24">
-        <v>1.12021476664107</v>
+        <v>0.3635695758148567</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.785297954973942</v>
+        <v>2.973600527279871</v>
       </c>
       <c r="C25">
-        <v>1.315713627418688</v>
+        <v>0.7077647302069749</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.03796302005154573</v>
+        <v>0.2425305183667206</v>
       </c>
       <c r="F25">
-        <v>3.131651740637778</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.000768791875942876</v>
+        <v>0.9919185079322546</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.5452604658636773</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0905235777937321</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.020082767364094</v>
+        <v>1.174635748616076</v>
       </c>
       <c r="N25">
-        <v>1.140945093239381</v>
+        <v>0.4408287002828573</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.47285606029169</v>
+        <v>0.8007386384252868</v>
       </c>
       <c r="C2">
-        <v>0.5940255161627306</v>
+        <v>0.1891880871935996</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2024834812720258</v>
+        <v>0.114491997644862</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.8415043921820597</v>
+        <v>0.558292718289735</v>
       </c>
       <c r="H2">
-        <v>0.4872137017373035</v>
+        <v>0.6226879084319137</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9732701643834432</v>
+        <v>0.3383916136339522</v>
       </c>
       <c r="N2">
-        <v>0.5030663947251401</v>
+        <v>1.008337260620687</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.138386059269067</v>
+        <v>0.705321384394324</v>
       </c>
       <c r="C3">
-        <v>0.5178918353107065</v>
+        <v>0.1663163533809495</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.176409682001939</v>
+        <v>0.1086070773511167</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.7457357288567721</v>
+        <v>0.5392220746471423</v>
       </c>
       <c r="H3">
-        <v>0.4511917113234887</v>
+        <v>0.6195508052312135</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8396202529469718</v>
+        <v>0.3020394082274862</v>
       </c>
       <c r="N3">
-        <v>0.5482215219249218</v>
+        <v>1.02523291381426</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934849565323702</v>
+        <v>0.6468390329911529</v>
       </c>
       <c r="C4">
-        <v>0.4714769165149164</v>
+        <v>0.1522137044287604</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.160832218851013</v>
+        <v>0.1050823239116667</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.6895016617189356</v>
+        <v>0.5280821386504897</v>
       </c>
       <c r="H4">
-        <v>0.4304908971622581</v>
+        <v>0.6180934530629685</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7586475120015521</v>
+        <v>0.2798358380511985</v>
       </c>
       <c r="N4">
-        <v>0.5773083855858117</v>
+        <v>1.036132427887289</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.852288576948354</v>
+        <v>0.6230328464602337</v>
       </c>
       <c r="C5">
-        <v>0.4526275526324639</v>
+        <v>0.1464517051098824</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1545801819175736</v>
+        <v>0.1036679966319767</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.6671670770571581</v>
+        <v>0.5236844113795627</v>
       </c>
       <c r="H5">
-        <v>0.4223815712539079</v>
+        <v>0.6176169696966127</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7258837323628597</v>
+        <v>0.2708165993970866</v>
       </c>
       <c r="N5">
-        <v>0.5894891374880613</v>
+        <v>1.040705951671102</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.838600271471677</v>
+        <v>0.6190813981837096</v>
       </c>
       <c r="C6">
-        <v>0.4495010553030738</v>
+        <v>0.1454940161764853</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1535474756121431</v>
+        <v>0.1034344726387246</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.6634917454208846</v>
+        <v>0.5229627031712027</v>
       </c>
       <c r="H6">
-        <v>0.4210539082341995</v>
+        <v>0.6175449262346291</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7204562948368718</v>
+        <v>0.2693206930375709</v>
       </c>
       <c r="N6">
-        <v>0.5915311198577755</v>
+        <v>1.041473339673453</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.933734672242764</v>
+        <v>0.6465178702493972</v>
       </c>
       <c r="C7">
-        <v>0.4712224669228817</v>
+        <v>0.1521360572302513</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1607475294531397</v>
+        <v>0.1050631608871058</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.6891981780771061</v>
+        <v>0.5280222566167367</v>
       </c>
       <c r="H7">
-        <v>0.4303802481183538</v>
+        <v>0.6180865523554218</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7582047550126774</v>
+        <v>0.2797140850732305</v>
       </c>
       <c r="N7">
-        <v>0.577471351596289</v>
+        <v>1.036193574390739</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.357102023159939</v>
+        <v>0.7678168855517242</v>
       </c>
       <c r="C8">
-        <v>0.5676943499726121</v>
+        <v>0.1813141314118241</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1933956034812425</v>
+        <v>0.1124443367185819</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.8079098941494181</v>
+        <v>0.5515981529282641</v>
       </c>
       <c r="H8">
-        <v>0.474480567564953</v>
+        <v>0.6215086256681985</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9269362532558816</v>
+        <v>0.325832822422484</v>
       </c>
       <c r="N8">
-        <v>0.5183441093915278</v>
+        <v>1.014053654698233</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.205736676411902</v>
+        <v>1.006539895636706</v>
       </c>
       <c r="C9">
-        <v>0.7604192503885372</v>
+        <v>0.2380707708591956</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2614784852813798</v>
+        <v>0.1276337629410662</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.064271594331643</v>
+        <v>0.6024120485364364</v>
       </c>
       <c r="H9">
-        <v>0.5736781152150741</v>
+        <v>0.6319630491316843</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.268475898452607</v>
+        <v>0.4172250574418399</v>
       </c>
       <c r="N9">
-        <v>0.413920176962602</v>
+        <v>0.9748181828079359</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.84649655358578</v>
+        <v>1.182509939393753</v>
       </c>
       <c r="C10">
-        <v>0.9056001260875064</v>
+        <v>0.2795052098613553</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3149572989043108</v>
+        <v>0.139246998362502</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.271906194728075</v>
+        <v>0.6426295197639718</v>
       </c>
       <c r="H10">
-        <v>0.6565850034391758</v>
+        <v>0.6419610150192057</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.529035490298298</v>
+        <v>0.4849958932013152</v>
       </c>
       <c r="N10">
-        <v>0.345330822202941</v>
+        <v>0.9485550494946358</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.14327399238374</v>
+        <v>1.262703134319452</v>
       </c>
       <c r="C11">
-        <v>0.9727892541596646</v>
+        <v>0.2983012138844003</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3402883879164662</v>
+        <v>0.1446325694007911</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.371797311684588</v>
+        <v>0.6615718885135209</v>
       </c>
       <c r="H11">
-        <v>0.6970545774822199</v>
+        <v>0.6470201778217017</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.650458689751929</v>
+        <v>0.5159722179179482</v>
       </c>
       <c r="N11">
-        <v>0.3161732558996371</v>
+        <v>0.937167008961965</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.2565608694199</v>
+        <v>1.293091599671925</v>
       </c>
       <c r="C12">
-        <v>0.9984312933121657</v>
+        <v>0.3054114195198281</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3500488776041308</v>
+        <v>0.1466870022064057</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.410523422143996</v>
+        <v>0.668839489023668</v>
       </c>
       <c r="H12">
-        <v>0.712830159851336</v>
+        <v>0.6490100342238634</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.696930045909994</v>
+        <v>0.5277239531569933</v>
       </c>
       <c r="N12">
-        <v>0.3054527989206823</v>
+        <v>0.9329353735234696</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.232119867893232</v>
+        <v>1.286545957483611</v>
       </c>
       <c r="C13">
-        <v>0.9928993807905613</v>
+        <v>0.3038804376906512</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3479388900377529</v>
+        <v>0.1462438703322348</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.40214103046614</v>
+        <v>0.6672700532606939</v>
       </c>
       <c r="H13">
-        <v>0.7094116260352621</v>
+        <v>0.6485781799414951</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.686898476983629</v>
+        <v>0.5251920342497982</v>
       </c>
       <c r="N13">
-        <v>0.307746906684895</v>
+        <v>0.9338431339649853</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.152575183069814</v>
+        <v>1.265202787563624</v>
       </c>
       <c r="C14">
-        <v>0.9748946410603878</v>
+        <v>0.2988863228835044</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3410878716453993</v>
+        <v>0.1448012859492565</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.374964580426479</v>
+        <v>0.6621678953062542</v>
       </c>
       <c r="H14">
-        <v>0.698343077391371</v>
+        <v>0.6471823968974491</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.65427161319252</v>
+        <v>0.5169386028157845</v>
       </c>
       <c r="N14">
-        <v>0.3152846808609704</v>
+        <v>0.9368172489778379</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.103973976118596</v>
+        <v>1.25213223231691</v>
       </c>
       <c r="C15">
-        <v>0.9638932191451204</v>
+        <v>0.295826319845105</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3369140838683862</v>
+        <v>0.1439196273659675</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.35843909403863</v>
+        <v>0.6590550313115102</v>
       </c>
       <c r="H15">
-        <v>0.6916236855297768</v>
+        <v>0.6463371015857433</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.634353043782184</v>
+        <v>0.511885976137421</v>
       </c>
       <c r="N15">
-        <v>0.3199444269691805</v>
+        <v>0.9386495094504799</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.827219767635086</v>
+        <v>1.177272047903898</v>
       </c>
       <c r="C16">
-        <v>0.9012350431488585</v>
+        <v>0.2782757984098225</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3133240165159563</v>
+        <v>0.1388971274967759</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.265497230180813</v>
+        <v>0.6414047404888095</v>
       </c>
       <c r="H16">
-        <v>0.6540001692297039</v>
+        <v>0.6416407192194242</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.521164625083813</v>
+        <v>0.4829745213400969</v>
       </c>
       <c r="N16">
-        <v>0.3472797026188763</v>
+        <v>0.9493105674624447</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.658891951760495</v>
+        <v>1.131384794565975</v>
       </c>
       <c r="C17">
-        <v>0.8631127711250315</v>
+        <v>0.2674957215769496</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.299125329345685</v>
+        <v>0.1358424712818831</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>1.20995245292022</v>
+        <v>0.6307436712134233</v>
       </c>
       <c r="H17">
-        <v>0.6316617389894645</v>
+        <v>0.6388909369874796</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.452518820808152</v>
+        <v>0.4652763134530176</v>
       </c>
       <c r="N17">
-        <v>0.3645907572056304</v>
+        <v>0.9559942554289282</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.562562942643694</v>
+        <v>1.105005145719133</v>
       </c>
       <c r="C18">
-        <v>0.8412913977535084</v>
+        <v>0.2612903341232879</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2910514632515984</v>
+        <v>0.1340951594357804</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.178508522795397</v>
+        <v>0.6246725392698806</v>
       </c>
       <c r="H18">
-        <v>0.6190689440339838</v>
+        <v>0.6373574016236603</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.413302917527531</v>
+        <v>0.455110579487723</v>
       </c>
       <c r="N18">
-        <v>0.3747382296957302</v>
+        <v>0.9598911478369292</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.530027449193142</v>
+        <v>1.096075754056642</v>
       </c>
       <c r="C19">
-        <v>0.8339202077353605</v>
+        <v>0.2591884380590557</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2883330563655093</v>
+        <v>0.1335051980485034</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>1.167945338699354</v>
+        <v>0.6226273619893163</v>
       </c>
       <c r="H19">
-        <v>0.6148475950823808</v>
+        <v>0.6368464109640115</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.400068863307723</v>
+        <v>0.4516709919950301</v>
       </c>
       <c r="N19">
-        <v>0.378205956146985</v>
+        <v>0.9612195940023414</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.676759175959376</v>
+        <v>1.136268172436644</v>
       </c>
       <c r="C20">
-        <v>0.8671597933872022</v>
+        <v>0.2686437927044381</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3006270312620103</v>
+        <v>0.1361666443979885</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.215812322975069</v>
+        <v>0.6318722536715029</v>
       </c>
       <c r="H20">
-        <v>0.6340128666835199</v>
+        <v>0.6391786771564227</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.459798099791143</v>
+        <v>0.4671588850869028</v>
       </c>
       <c r="N20">
-        <v>0.3627280529819257</v>
+        <v>0.9552773177629827</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.175913638107318</v>
+        <v>1.27147121955619</v>
       </c>
       <c r="C21">
-        <v>0.9801773753424072</v>
+        <v>0.3003534159857395</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3430954128054964</v>
+        <v>0.1452245977471236</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>1.38292154241924</v>
+        <v>0.663663945362913</v>
       </c>
       <c r="H21">
-        <v>0.701581481663851</v>
+        <v>0.6475903576042867</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.663840944613327</v>
+        <v>0.5193622432193337</v>
       </c>
       <c r="N21">
-        <v>0.3130617147248267</v>
+        <v>0.9359414843906668</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.50748625376184</v>
+        <v>1.359957078262823</v>
       </c>
       <c r="C22">
-        <v>1.055219767738265</v>
+        <v>0.321034233836798</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3718444412507651</v>
+        <v>0.1512322517825169</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.497445263280866</v>
+        <v>0.6849933715668328</v>
       </c>
       <c r="H22">
-        <v>0.7483982869424608</v>
+        <v>0.6535198331825427</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.800098476950083</v>
+        <v>0.5536067362528314</v>
       </c>
       <c r="N22">
-        <v>0.2824871110814624</v>
+        <v>0.9237753501994979</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.32997885175115</v>
+        <v>1.312719132322059</v>
       </c>
       <c r="C23">
-        <v>1.015047903474255</v>
+        <v>0.3100003995025986</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3564009389856437</v>
+        <v>0.1480177330481709</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>1.435793445623432</v>
+        <v>0.6735584868393687</v>
       </c>
       <c r="H23">
-        <v>0.7231484219629749</v>
+        <v>0.6503154452084345</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.727082341890977</v>
+        <v>0.5353180463466174</v>
       </c>
       <c r="N23">
-        <v>0.2986230993607024</v>
+        <v>0.9302254330506621</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.668680028717858</v>
+        <v>1.134060392525953</v>
       </c>
       <c r="C24">
-        <v>0.8653298392929685</v>
+        <v>0.2681247739889159</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2999478359148569</v>
+        <v>0.1360200581859061</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>1.213161559749011</v>
+        <v>0.6313618408086938</v>
       </c>
       <c r="H24">
-        <v>0.6329491476127771</v>
+        <v>0.6390484423730527</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.456506366224573</v>
+        <v>0.4663077458350102</v>
       </c>
       <c r="N24">
-        <v>0.3635695758148567</v>
+        <v>0.9556012760055044</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.973600527279871</v>
+        <v>0.9418613730704806</v>
       </c>
       <c r="C25">
-        <v>0.7077647302069749</v>
+        <v>0.2227642913527177</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2425305183667206</v>
+        <v>0.123446258690258</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.9919185079322546</v>
+        <v>0.5881656311262873</v>
       </c>
       <c r="H25">
-        <v>0.5452604658636773</v>
+        <v>0.6287304768997899</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.174635748616076</v>
+        <v>0.3923944686134604</v>
       </c>
       <c r="N25">
-        <v>0.4408287002828573</v>
+        <v>0.9849833660033251</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8007386384252868</v>
+        <v>2.472856060291804</v>
       </c>
       <c r="C2">
-        <v>0.1891880871935996</v>
+        <v>0.5940255161626169</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.114491997644862</v>
+        <v>0.2024834812720044</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.558292718289735</v>
+        <v>0.841504392182074</v>
       </c>
       <c r="H2">
-        <v>0.6226879084319137</v>
+        <v>0.4872137017374172</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3383916136339522</v>
+        <v>0.9732701643834432</v>
       </c>
       <c r="N2">
-        <v>1.008337260620687</v>
+        <v>0.5030663947251393</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.705321384394324</v>
+        <v>2.138386059269067</v>
       </c>
       <c r="C3">
-        <v>0.1663163533809495</v>
+        <v>0.5178918353107065</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1086070773511167</v>
+        <v>0.1764096820019461</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.5392220746471423</v>
+        <v>0.7457357288567579</v>
       </c>
       <c r="H3">
-        <v>0.6195508052312135</v>
+        <v>0.4511917113234887</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3020394082274862</v>
+        <v>0.8396202529469647</v>
       </c>
       <c r="N3">
-        <v>1.02523291381426</v>
+        <v>0.54822152192492</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6468390329911529</v>
+        <v>1.934849565323674</v>
       </c>
       <c r="C4">
-        <v>0.1522137044287604</v>
+        <v>0.4714769165150017</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1050823239116667</v>
+        <v>0.1608322188509845</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5280821386504897</v>
+        <v>0.6895016617188645</v>
       </c>
       <c r="H4">
-        <v>0.6180934530629685</v>
+        <v>0.4304908971623718</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2798358380511985</v>
+        <v>0.7586475120015592</v>
       </c>
       <c r="N4">
-        <v>1.036132427887289</v>
+        <v>0.5773083855858165</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6230328464602337</v>
+        <v>1.852288576948354</v>
       </c>
       <c r="C5">
-        <v>0.1464517051098824</v>
+        <v>0.4526275526324355</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1036679966319767</v>
+        <v>0.1545801819175878</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.5236844113795627</v>
+        <v>0.6671670770571865</v>
       </c>
       <c r="H5">
-        <v>0.6176169696966127</v>
+        <v>0.4223815712539221</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2708165993970866</v>
+        <v>0.7258837323628811</v>
       </c>
       <c r="N5">
-        <v>1.040705951671102</v>
+        <v>0.5894891374880595</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6190813981837096</v>
+        <v>1.83860027147179</v>
       </c>
       <c r="C6">
-        <v>0.1454940161764853</v>
+        <v>0.4495010553031022</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1034344726387246</v>
+        <v>0.1535474756121644</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.5229627031712027</v>
+        <v>0.6634917454208988</v>
       </c>
       <c r="H6">
-        <v>0.6175449262346291</v>
+        <v>0.4210539082343132</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2693206930375709</v>
+        <v>0.720456294836886</v>
       </c>
       <c r="N6">
-        <v>1.041473339673453</v>
+        <v>0.5915311198577697</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6465178702493972</v>
+        <v>1.933734672242792</v>
       </c>
       <c r="C7">
-        <v>0.1521360572302513</v>
+        <v>0.4712224669228533</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1050631608871058</v>
+        <v>0.160747529453154</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5280222566167367</v>
+        <v>0.6891981780770777</v>
       </c>
       <c r="H7">
-        <v>0.6180865523554218</v>
+        <v>0.4303802481184817</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2797140850732305</v>
+        <v>0.7582047550126845</v>
       </c>
       <c r="N7">
-        <v>1.036193574390739</v>
+        <v>0.5774713515962926</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7678168855517242</v>
+        <v>2.35710202316011</v>
       </c>
       <c r="C8">
-        <v>0.1813141314118241</v>
+        <v>0.5676943499726974</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1124443367185819</v>
+        <v>0.1933956034812496</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.5515981529282641</v>
+        <v>0.8079098941493896</v>
       </c>
       <c r="H8">
-        <v>0.6215086256681985</v>
+        <v>0.4744805675650525</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.325832822422484</v>
+        <v>0.9269362532558816</v>
       </c>
       <c r="N8">
-        <v>1.014053654698233</v>
+        <v>0.5183441093915446</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.006539895636706</v>
+        <v>3.205736676411902</v>
       </c>
       <c r="C9">
-        <v>0.2380707708591956</v>
+        <v>0.7604192503885088</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1276337629410662</v>
+        <v>0.2614784852814296</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.6024120485364364</v>
+        <v>1.064271594331615</v>
       </c>
       <c r="H9">
-        <v>0.6319630491316843</v>
+        <v>0.5736781152149604</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4172250574418399</v>
+        <v>1.268475898452607</v>
       </c>
       <c r="N9">
-        <v>0.9748181828079359</v>
+        <v>0.4139201769626037</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.182509939393753</v>
+        <v>3.846496553585951</v>
       </c>
       <c r="C10">
-        <v>0.2795052098613553</v>
+        <v>0.9056001260876485</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.139246998362502</v>
+        <v>0.3149572989043037</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.6426295197639718</v>
+        <v>1.271906194728075</v>
       </c>
       <c r="H10">
-        <v>0.6419610150192057</v>
+        <v>0.6565850034392895</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4849958932013152</v>
+        <v>1.52903549029827</v>
       </c>
       <c r="N10">
-        <v>0.9485550494946358</v>
+        <v>0.3453308222029485</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.262703134319452</v>
+        <v>4.143273992383797</v>
       </c>
       <c r="C11">
-        <v>0.2983012138844003</v>
+        <v>0.9727892541595224</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1446325694007911</v>
+        <v>0.3402883879164449</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.6615718885135209</v>
+        <v>1.37179731168456</v>
       </c>
       <c r="H11">
-        <v>0.6470201778217017</v>
+        <v>0.6970545774822199</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5159722179179482</v>
+        <v>1.650458689751929</v>
       </c>
       <c r="N11">
-        <v>0.937167008961965</v>
+        <v>0.3161732558996424</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.293091599671925</v>
+        <v>4.256560869419843</v>
       </c>
       <c r="C12">
-        <v>0.3054114195198281</v>
+        <v>0.9984312933122794</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1466870022064057</v>
+        <v>0.3500488776041095</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.668839489023668</v>
+        <v>1.410523422144053</v>
       </c>
       <c r="H12">
-        <v>0.6490100342238634</v>
+        <v>0.712830159851336</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5277239531569933</v>
+        <v>1.69693004590998</v>
       </c>
       <c r="N12">
-        <v>0.9329353735234696</v>
+        <v>0.3054527989206748</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.286545957483611</v>
+        <v>4.232119867893346</v>
       </c>
       <c r="C13">
-        <v>0.3038804376906512</v>
+        <v>0.9928993807905329</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1462438703322348</v>
+        <v>0.3479388900377174</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.6672700532606939</v>
+        <v>1.402141030466169</v>
       </c>
       <c r="H13">
-        <v>0.6485781799414951</v>
+        <v>0.7094116260352621</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5251920342497982</v>
+        <v>1.686898476983615</v>
       </c>
       <c r="N13">
-        <v>0.9338431339649853</v>
+        <v>0.3077469066848879</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.265202787563624</v>
+        <v>4.152575183069814</v>
       </c>
       <c r="C14">
-        <v>0.2988863228835044</v>
+        <v>0.9748946410605015</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1448012859492565</v>
+        <v>0.3410878716453922</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.6621678953062542</v>
+        <v>1.374964580426536</v>
       </c>
       <c r="H14">
-        <v>0.6471823968974491</v>
+        <v>0.6983430773914847</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5169386028157845</v>
+        <v>1.654271613192492</v>
       </c>
       <c r="N14">
-        <v>0.9368172489778379</v>
+        <v>0.3152846808609824</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.25213223231691</v>
+        <v>4.103973976118709</v>
       </c>
       <c r="C15">
-        <v>0.295826319845105</v>
+        <v>0.9638932191450067</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1439196273659675</v>
+        <v>0.336914083868372</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.6590550313115102</v>
+        <v>1.358439094038602</v>
       </c>
       <c r="H15">
-        <v>0.6463371015857433</v>
+        <v>0.6916236855297768</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.511885976137421</v>
+        <v>1.634353043782184</v>
       </c>
       <c r="N15">
-        <v>0.9386495094504799</v>
+        <v>0.3199444269691778</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.177272047903898</v>
+        <v>3.827219767634972</v>
       </c>
       <c r="C16">
-        <v>0.2782757984098225</v>
+        <v>0.9012350431488869</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1388971274967759</v>
+        <v>0.3133240165159634</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.6414047404888095</v>
+        <v>1.265497230180756</v>
       </c>
       <c r="H16">
-        <v>0.6416407192194242</v>
+        <v>0.6540001692297039</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4829745213400969</v>
+        <v>1.521164625083813</v>
       </c>
       <c r="N16">
-        <v>0.9493105674624447</v>
+        <v>0.3472797026188763</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.131384794565975</v>
+        <v>3.658891951760495</v>
       </c>
       <c r="C17">
-        <v>0.2674957215769496</v>
+        <v>0.8631127711249462</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1358424712818831</v>
+        <v>0.2991253293456779</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.6307436712134233</v>
+        <v>1.20995245292022</v>
       </c>
       <c r="H17">
-        <v>0.6388909369874796</v>
+        <v>0.6316617389894361</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4652763134530176</v>
+        <v>1.452518820808137</v>
       </c>
       <c r="N17">
-        <v>0.9559942554289282</v>
+        <v>0.3645907572056437</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.105005145719133</v>
+        <v>3.562562942643638</v>
       </c>
       <c r="C18">
-        <v>0.2612903341232879</v>
+        <v>0.8412913977534231</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1340951594357804</v>
+        <v>0.2910514632515984</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6246725392698806</v>
+        <v>1.178508522795312</v>
       </c>
       <c r="H18">
-        <v>0.6373574016236603</v>
+        <v>0.6190689440339838</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.455110579487723</v>
+        <v>1.413302917527545</v>
       </c>
       <c r="N18">
-        <v>0.9598911478369292</v>
+        <v>0.3747382296957271</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.096075754056642</v>
+        <v>3.530027449193028</v>
       </c>
       <c r="C19">
-        <v>0.2591884380590557</v>
+        <v>0.8339202077353605</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1335051980485034</v>
+        <v>0.2883330563655164</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.6226273619893163</v>
+        <v>1.167945338699354</v>
       </c>
       <c r="H19">
-        <v>0.6368464109640115</v>
+        <v>0.6148475950823808</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4516709919950301</v>
+        <v>1.400068863307723</v>
       </c>
       <c r="N19">
-        <v>0.9612195940023414</v>
+        <v>0.3782059561469904</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.136268172436644</v>
+        <v>3.676759175959376</v>
       </c>
       <c r="C20">
-        <v>0.2686437927044381</v>
+        <v>0.8671597933869464</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1361666443979885</v>
+        <v>0.3006270312620032</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6318722536715029</v>
+        <v>1.215812322975125</v>
       </c>
       <c r="H20">
-        <v>0.6391786771564227</v>
+        <v>0.6340128666836051</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4671588850869028</v>
+        <v>1.459798099791129</v>
       </c>
       <c r="N20">
-        <v>0.9552773177629827</v>
+        <v>0.362728052981939</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.27147121955619</v>
+        <v>4.175913638107147</v>
       </c>
       <c r="C21">
-        <v>0.3003534159857395</v>
+        <v>0.9801773753422651</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1452245977471236</v>
+        <v>0.3430954128054751</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.663663945362913</v>
+        <v>1.382921542419155</v>
       </c>
       <c r="H21">
-        <v>0.6475903576042867</v>
+        <v>0.701581481663851</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5193622432193337</v>
+        <v>1.663840944613341</v>
       </c>
       <c r="N21">
-        <v>0.9359414843906668</v>
+        <v>0.313061714724773</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.359957078262823</v>
+        <v>4.507486253761613</v>
       </c>
       <c r="C22">
-        <v>0.321034233836798</v>
+        <v>1.055219767738123</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1512322517825169</v>
+        <v>0.3718444412507651</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.6849933715668328</v>
+        <v>1.497445263280895</v>
       </c>
       <c r="H22">
-        <v>0.6535198331825427</v>
+        <v>0.7483982869425745</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5536067362528314</v>
+        <v>1.800098476950083</v>
       </c>
       <c r="N22">
-        <v>0.9237753501994979</v>
+        <v>0.2824871110814691</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.312719132322059</v>
+        <v>4.329978851751207</v>
       </c>
       <c r="C23">
-        <v>0.3100003995025986</v>
+        <v>1.015047903474482</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1480177330481709</v>
+        <v>0.3564009389856437</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.6735584868393687</v>
+        <v>1.435793445623432</v>
       </c>
       <c r="H23">
-        <v>0.6503154452084345</v>
+        <v>0.7231484219632023</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5353180463466174</v>
+        <v>1.727082341890977</v>
       </c>
       <c r="N23">
-        <v>0.9302254330506621</v>
+        <v>0.2986230993607033</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.134060392525953</v>
+        <v>3.668680028717858</v>
       </c>
       <c r="C24">
-        <v>0.2681247739889159</v>
+        <v>0.8653298392930253</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1360200581859061</v>
+        <v>0.2999478359148711</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.6313618408086938</v>
+        <v>1.213161559749039</v>
       </c>
       <c r="H24">
-        <v>0.6390484423730527</v>
+        <v>0.6329491476126634</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4663077458350102</v>
+        <v>1.456506366224573</v>
       </c>
       <c r="N24">
-        <v>0.9556012760055044</v>
+        <v>0.363569575814791</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9418613730704806</v>
+        <v>2.973600527279928</v>
       </c>
       <c r="C25">
-        <v>0.2227642913527177</v>
+        <v>0.7077647302070034</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.123446258690258</v>
+        <v>0.242530518366749</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5881656311262873</v>
+        <v>0.991918507932283</v>
       </c>
       <c r="H25">
-        <v>0.6287304768997899</v>
+        <v>0.5452604658636773</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3923944686134604</v>
+        <v>1.174635748616069</v>
       </c>
       <c r="N25">
-        <v>0.9849833660033251</v>
+        <v>0.4408287002827986</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.472856060291804</v>
+        <v>2.036917280085959</v>
       </c>
       <c r="C2">
-        <v>0.5940255161626169</v>
+        <v>0.659291737290971</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2024834812720044</v>
+        <v>0.2897152200068263</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>1.74576104376213</v>
       </c>
       <c r="G2">
-        <v>0.841504392182074</v>
+        <v>0.678448637944669</v>
       </c>
       <c r="H2">
-        <v>0.4872137017374172</v>
+        <v>1.543584494756445E-05</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.003456205832222725</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4519291396104137</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3480773458819044</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0359993266118579</v>
       </c>
       <c r="M2">
-        <v>0.9732701643834432</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5030663947251393</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8946427292307888</v>
+      </c>
+      <c r="P2">
+        <v>0.7222936708041594</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.138386059269067</v>
+        <v>1.771332560685323</v>
       </c>
       <c r="C3">
-        <v>0.5178918353107065</v>
+        <v>0.5751037669587902</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1764096820019461</v>
+        <v>0.2625548732563487</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.595120078530513</v>
       </c>
       <c r="G3">
-        <v>0.7457357288567579</v>
+        <v>0.6182257751431735</v>
       </c>
       <c r="H3">
-        <v>0.4511917113234887</v>
+        <v>0.000435057747956602</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.001969173215759845</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4287216579550801</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3371197281146365</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0338979440701781</v>
       </c>
       <c r="M3">
-        <v>0.8396202529469647</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.54822152192492</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7818596478478597</v>
+      </c>
+      <c r="P3">
+        <v>0.7479613828245313</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934849565323674</v>
+        <v>1.607751569964165</v>
       </c>
       <c r="C4">
-        <v>0.4714769165150017</v>
+        <v>0.5237746832066534</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1608322188509845</v>
+        <v>0.2459225572722943</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>1.503382387654781</v>
       </c>
       <c r="G4">
-        <v>0.6895016617188645</v>
+        <v>0.5818054638620396</v>
       </c>
       <c r="H4">
-        <v>0.4304908971623718</v>
+        <v>0.0009996762858817121</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.001300258341039306</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4148384353747048</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3306535666454735</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.0325792770919302</v>
       </c>
       <c r="M4">
-        <v>0.7586475120015592</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5773083855858165</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.7127290214733151</v>
+      </c>
+      <c r="P4">
+        <v>0.7643653416602127</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.852288576948354</v>
+        <v>1.539542849302137</v>
       </c>
       <c r="C5">
-        <v>0.4526275526324355</v>
+        <v>0.5034609754606834</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1545801819175878</v>
+        <v>0.2393376612092517</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.465488911374976</v>
       </c>
       <c r="G5">
-        <v>0.6671670770571865</v>
+        <v>0.566182513575626</v>
       </c>
       <c r="H5">
-        <v>0.4223815712539221</v>
+        <v>0.001303844873377091</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.001144066486067352</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4088043809317554</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3275445076201393</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.03201897766348272</v>
       </c>
       <c r="M5">
-        <v>0.7258837323628811</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5894891374880595</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.68471817528836</v>
+      </c>
+      <c r="P5">
+        <v>0.7713210763389959</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.83860027147179</v>
+        <v>1.526485337504937</v>
       </c>
       <c r="C6">
-        <v>0.4495010553031022</v>
+        <v>0.5007357898108182</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1535474756121644</v>
+        <v>0.2384714785363826</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.45837492642363</v>
       </c>
       <c r="G6">
-        <v>0.6634917454208988</v>
+        <v>0.5624874691727086</v>
       </c>
       <c r="H6">
-        <v>0.4210539082343132</v>
+        <v>0.0013598566263886</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001201311772314639</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4072427667038312</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3263785118520346</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.0319068107702043</v>
       </c>
       <c r="M6">
-        <v>0.720456294836886</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5915311198577697</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6802378413454093</v>
+      </c>
+      <c r="P6">
+        <v>0.7726281207624375</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.933734672242792</v>
+        <v>1.602108680982809</v>
       </c>
       <c r="C7">
-        <v>0.4712224669228533</v>
+        <v>0.5252625859575346</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.160747529453154</v>
+        <v>0.2464540051612119</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>1.500597910467349</v>
       </c>
       <c r="G7">
-        <v>0.6891981780770777</v>
+        <v>0.5785625825628671</v>
       </c>
       <c r="H7">
-        <v>0.4303802481184817</v>
+        <v>0.001006219917047746</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001499973909514729</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4132133134185096</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3288255213155722</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.03252069093351673</v>
       </c>
       <c r="M7">
-        <v>0.7582047550126845</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5774713515962926</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.7128153180522574</v>
+      </c>
+      <c r="P7">
+        <v>0.76486416521481</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.35710202316011</v>
+        <v>1.939116751906113</v>
       </c>
       <c r="C8">
-        <v>0.5676943499726974</v>
+        <v>0.6325338783939856</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1933956034812496</v>
+        <v>0.2811641991731548</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.690635213675279</v>
       </c>
       <c r="G8">
-        <v>0.8079098941493896</v>
+        <v>0.6535282009264876</v>
       </c>
       <c r="H8">
-        <v>0.4744805675650525</v>
+        <v>9.497948576120407E-05</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.003125129007955252</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4418010588215964</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3418764580743883</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.03521265136402008</v>
       </c>
       <c r="M8">
-        <v>0.9269362532558816</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5183441093915446</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.8563417625520202</v>
+      </c>
+      <c r="P8">
+        <v>0.7316179472323334</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.205736676411902</v>
+        <v>2.605134075166575</v>
       </c>
       <c r="C9">
-        <v>0.7604192503885088</v>
+        <v>0.8432107751236515</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2614784852814296</v>
+        <v>0.3486229502036622</v>
       </c>
       <c r="F9">
-        <v>1.895061171842812</v>
+        <v>2.074364692660609</v>
       </c>
       <c r="G9">
-        <v>1.064271594331615</v>
+        <v>0.811146864428764</v>
       </c>
       <c r="H9">
-        <v>0.5736781152149604</v>
+        <v>0.0009362929993508295</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.008161790163026872</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5038670108613417</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.372992706473994</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.04037917318832562</v>
       </c>
       <c r="M9">
-        <v>1.268475898452607</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4139201769626037</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.138298653571709</v>
+      </c>
+      <c r="P9">
+        <v>0.6709280197520968</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.846496553585951</v>
+        <v>3.086857249556601</v>
       </c>
       <c r="C10">
-        <v>0.9056001260876485</v>
+        <v>0.9981061407626726</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3149572989043037</v>
+        <v>0.3844743791388439</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>2.318679553919296</v>
       </c>
       <c r="G10">
-        <v>1.271906194728075</v>
+        <v>0.919099490405145</v>
       </c>
       <c r="H10">
-        <v>0.6565850034392895</v>
+        <v>0.003419555927404616</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01346859914589693</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5459232621173129</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.3922448938152101</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.04333223529393848</v>
       </c>
       <c r="M10">
-        <v>1.52903549029827</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3453308222029485</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.322599015218373</v>
+      </c>
+      <c r="P10">
+        <v>0.6327544849738054</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.143273992383797</v>
+        <v>3.262237600727246</v>
       </c>
       <c r="C11">
-        <v>0.9727892541595224</v>
+        <v>1.038408051927235</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.3402883879164449</v>
+        <v>0.2885978406081975</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>2.07108177830068</v>
       </c>
       <c r="G11">
-        <v>1.37179731168456</v>
+        <v>0.8735285319939123</v>
       </c>
       <c r="H11">
-        <v>0.6970545774822199</v>
+        <v>0.02179777332598221</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01575375039652904</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5180101467731504</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.3602629543528337</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.04420001125364692</v>
       </c>
       <c r="M11">
-        <v>1.650458689751929</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3161732558996424</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.19966579807388</v>
+      </c>
+      <c r="P11">
+        <v>0.643894614820482</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.256560869419843</v>
+        <v>3.315664791235463</v>
       </c>
       <c r="C12">
-        <v>0.9984312933122794</v>
+        <v>1.03616004458965</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3500488776041095</v>
+        <v>0.2171049597223274</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>1.826236508065051</v>
       </c>
       <c r="G12">
-        <v>1.410523422144053</v>
+        <v>0.8175116322782827</v>
       </c>
       <c r="H12">
-        <v>0.712830159851336</v>
+        <v>0.06000919265928673</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01616322325670172</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4880348801909093</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3325753651173429</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.05225357640352613</v>
       </c>
       <c r="M12">
-        <v>1.69693004590998</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3054527989206748</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.062617684065209</v>
+      </c>
+      <c r="P12">
+        <v>0.6658057674138931</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.232119867893346</v>
+        <v>3.270167209678789</v>
       </c>
       <c r="C13">
-        <v>0.9928993807905329</v>
+        <v>1.003795928790055</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3479388900377174</v>
+        <v>0.1612025671837642</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>1.567058636582217</v>
       </c>
       <c r="G13">
-        <v>1.402141030466169</v>
+        <v>0.7454114278018551</v>
       </c>
       <c r="H13">
-        <v>0.7094116260352621</v>
+        <v>0.1150765784251178</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01537339285698724</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4522644241249481</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3037326356885472</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06602471597856763</v>
       </c>
       <c r="M13">
-        <v>1.686898476983615</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3077469066848879</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.9086040103621329</v>
+      </c>
+      <c r="P13">
+        <v>0.697109490545671</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.152575183069814</v>
+        <v>3.192200817476362</v>
       </c>
       <c r="C14">
-        <v>0.9748946410605015</v>
+        <v>0.9682464998319631</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.3410878716453922</v>
+        <v>0.1317584165285837</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>1.382073912209876</v>
       </c>
       <c r="G14">
-        <v>1.374964580426536</v>
+        <v>0.687477691116797</v>
       </c>
       <c r="H14">
-        <v>0.6983430773914847</v>
+        <v>0.1639087595702478</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01437684454368515</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4244643516606459</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2828439241988683</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.07917853611597536</v>
       </c>
       <c r="M14">
-        <v>1.654271613192492</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3152846808609824</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.7952387292955052</v>
+      </c>
+      <c r="P14">
+        <v>0.7239106612439841</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.103973976118709</v>
+        <v>3.150274052779821</v>
       </c>
       <c r="C15">
-        <v>0.9638932191450067</v>
+        <v>0.9540073507780562</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.336914083868372</v>
+        <v>0.125679134478883</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>1.332170404455624</v>
       </c>
       <c r="G15">
-        <v>1.358439094038602</v>
+        <v>0.668961014055526</v>
       </c>
       <c r="H15">
-        <v>0.6916236855297768</v>
+        <v>0.1762240261839736</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01398053614443562</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4159780074274266</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2769071835992847</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08259561092518197</v>
       </c>
       <c r="M15">
-        <v>1.634353043782184</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3199444269691778</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7636302344326253</v>
+      </c>
+      <c r="P15">
+        <v>0.7321494338678178</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.827219767634972</v>
+        <v>2.949482664382913</v>
       </c>
       <c r="C16">
-        <v>0.9012350431488869</v>
+        <v>0.8953815794699835</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3133240165159634</v>
+        <v>0.1232792457676073</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>1.285029814657449</v>
       </c>
       <c r="G16">
-        <v>1.265497230180756</v>
+        <v>0.6362088167749675</v>
       </c>
       <c r="H16">
-        <v>0.6540001692297039</v>
+        <v>0.1627058442503255</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01182604687601518</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4044747670579198</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2735847870032728</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07819209435608343</v>
       </c>
       <c r="M16">
-        <v>1.521164625083813</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3472797026188763</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.7207887655964598</v>
+      </c>
+      <c r="P16">
+        <v>0.7397025302263813</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.658891951760495</v>
+        <v>2.836968922736446</v>
       </c>
       <c r="C17">
-        <v>0.8631127711249462</v>
+        <v>0.8694284800119192</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2991253293456779</v>
+        <v>0.1353475247256561</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>1.344848829077165</v>
       </c>
       <c r="G17">
-        <v>1.20995245292022</v>
+        <v>0.641595446597421</v>
       </c>
       <c r="H17">
-        <v>0.6316617389894361</v>
+        <v>0.1245924020043532</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01075697803624376</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4103372469152333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.282001239097518</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06720668370457616</v>
       </c>
       <c r="M17">
-        <v>1.452518820808137</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3645907572056437</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7467338111249973</v>
+      </c>
+      <c r="P17">
+        <v>0.7314170361433767</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.562562942643638</v>
+        <v>2.791194297152344</v>
       </c>
       <c r="C18">
-        <v>0.8412913977534231</v>
+        <v>0.866814645883494</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2910514632515984</v>
+        <v>0.1698617457609224</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>1.51201631344648</v>
       </c>
       <c r="G18">
-        <v>1.178508522795312</v>
+        <v>0.6830438525582423</v>
       </c>
       <c r="H18">
-        <v>0.6190689440339838</v>
+        <v>0.07176781748366778</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01018242956888393</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4330578042865909</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3030871254593812</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05291749220165798</v>
       </c>
       <c r="M18">
-        <v>1.413302917527545</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3747382296957271</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8382963628078244</v>
+      </c>
+      <c r="P18">
+        <v>0.7098753262853847</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.530027449193028</v>
+        <v>2.792905293933302</v>
       </c>
       <c r="C19">
-        <v>0.8339202077353605</v>
+        <v>0.8865319177395179</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2883330563655164</v>
+        <v>0.2339698603471234</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>1.762310957237133</v>
       </c>
       <c r="G19">
-        <v>1.167945338699354</v>
+        <v>0.7467089210202857</v>
       </c>
       <c r="H19">
-        <v>0.6148475950823808</v>
+        <v>0.026908818661731</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01049358653187049</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.465626556214076</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.330790049865179</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.04264510416509637</v>
       </c>
       <c r="M19">
-        <v>1.400068863307723</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3782059561469904</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9835172413077942</v>
+      </c>
+      <c r="P19">
+        <v>0.6848104908958064</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.676759175959376</v>
+        <v>2.944974100495187</v>
       </c>
       <c r="C20">
-        <v>0.8671597933869464</v>
+        <v>0.9627007020006317</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3006270312620032</v>
+        <v>0.376344422575805</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>2.245279808182062</v>
       </c>
       <c r="G20">
-        <v>1.215812322975125</v>
+        <v>0.8804494994215304</v>
       </c>
       <c r="H20">
-        <v>0.6340128666836051</v>
+        <v>0.002603608371394728</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01255560075555362</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.529660289163246</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.3813299477713912</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.04238186351031814</v>
       </c>
       <c r="M20">
-        <v>1.459798099791129</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.362728052981939</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.274568641353326</v>
+      </c>
+      <c r="P20">
+        <v>0.6444854354381988</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.175913638107147</v>
+        <v>3.323965113784254</v>
       </c>
       <c r="C21">
-        <v>0.9801773753422651</v>
+        <v>1.08760682517692</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.3430954128054751</v>
+        <v>0.4262400537996243</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>2.5016796905376</v>
       </c>
       <c r="G21">
-        <v>1.382921542419155</v>
+        <v>0.9833062729240396</v>
       </c>
       <c r="H21">
-        <v>0.701581481663851</v>
+        <v>0.005225918674314989</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01723028790517134</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5719974397979541</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4049299305585166</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.04576918918860784</v>
       </c>
       <c r="M21">
-        <v>1.663840944613341</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.313061714724773</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.454126083755611</v>
+      </c>
+      <c r="P21">
+        <v>0.612322419645686</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.507486253761613</v>
+        <v>3.576140740061305</v>
       </c>
       <c r="C22">
-        <v>1.055219767738123</v>
+        <v>1.165789594782382</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.3718444412507651</v>
+        <v>0.4507630676212813</v>
       </c>
       <c r="F22">
-        <v>2.667416158031969</v>
+        <v>2.652344274840516</v>
       </c>
       <c r="G22">
-        <v>1.497445263280895</v>
+        <v>1.050311347583261</v>
       </c>
       <c r="H22">
-        <v>0.7483982869425745</v>
+        <v>0.007367642134389729</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02039719473501123</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5996355808705403</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4208318123656127</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0476819717149457</v>
       </c>
       <c r="M22">
-        <v>1.800098476950083</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.2824871110814691</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.558882984592259</v>
+      </c>
+      <c r="P22">
+        <v>0.592536786241336</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.329978851751207</v>
+        <v>3.447348296458756</v>
       </c>
       <c r="C23">
-        <v>1.015047903474482</v>
+        <v>1.121820146803913</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.3564009389856437</v>
+        <v>0.4369083622321384</v>
       </c>
       <c r="F23">
-        <v>2.562285531758775</v>
+        <v>2.574491436019372</v>
       </c>
       <c r="G23">
-        <v>1.435793445623432</v>
+        <v>1.018065952484676</v>
       </c>
       <c r="H23">
-        <v>0.7231484219632023</v>
+        <v>0.006189212832207192</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0184416660139286</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5866530883477736</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4144028401644988</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.04672279763381404</v>
       </c>
       <c r="M23">
-        <v>1.727082341890977</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.2986230993607033</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.502375092917944</v>
+      </c>
+      <c r="P23">
+        <v>0.6022811122387708</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.668680028717858</v>
+        <v>2.95085570833055</v>
       </c>
       <c r="C24">
-        <v>0.8653298392930253</v>
+        <v>0.9604270686744201</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2999478359148711</v>
+        <v>0.385953909601163</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>2.278569852869879</v>
       </c>
       <c r="G24">
-        <v>1.213161559749039</v>
+        <v>0.8926639308573385</v>
       </c>
       <c r="H24">
-        <v>0.6329491476126634</v>
+        <v>0.002597127950468181</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01216990765334192</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5359159315992912</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3877206974740801</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.04298118681951202</v>
       </c>
       <c r="M24">
-        <v>1.456506366224573</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.363569575814791</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.290144943745062</v>
+      </c>
+      <c r="P24">
+        <v>0.6419497223178858</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.973600527279928</v>
+        <v>2.416470689619985</v>
       </c>
       <c r="C25">
-        <v>0.7077647302070034</v>
+        <v>0.7890028256552455</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.242530518366749</v>
+        <v>0.3314323244885742</v>
       </c>
       <c r="F25">
-        <v>1.757113814925091</v>
+        <v>1.965527686905531</v>
       </c>
       <c r="G25">
-        <v>0.991918507932283</v>
+        <v>0.7623161189606122</v>
       </c>
       <c r="H25">
-        <v>0.5452604658636773</v>
+        <v>0.0003962217759987396</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.006872923002631204</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4838828749431627</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3610635556505315</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.03890766710577243</v>
       </c>
       <c r="M25">
-        <v>1.174635748616069</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4408287002827986</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>1.062663914966343</v>
+      </c>
+      <c r="P25">
+        <v>0.6877042239907247</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_30/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.036917280085959</v>
+        <v>1.921923677667138</v>
       </c>
       <c r="C2">
-        <v>0.659291737290971</v>
+        <v>0.6950617673604427</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2897152200068263</v>
+        <v>0.3043652338462408</v>
       </c>
       <c r="F2">
-        <v>1.74576104376213</v>
+        <v>1.690192026359512</v>
       </c>
       <c r="G2">
-        <v>0.678448637944669</v>
+        <v>0.5856658028835113</v>
       </c>
       <c r="H2">
-        <v>1.543584494756445E-05</v>
+        <v>2.654819824576826E-05</v>
       </c>
       <c r="I2">
-        <v>0.003456205832222725</v>
+        <v>0.003417496063013559</v>
       </c>
       <c r="J2">
-        <v>0.4519291396104137</v>
+        <v>0.4612296792208639</v>
       </c>
       <c r="K2">
-        <v>0.3480773458819044</v>
+        <v>0.3039480572587578</v>
       </c>
       <c r="L2">
-        <v>0.0359993266118579</v>
+        <v>0.1699792287075645</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.07288134022039827</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.03495965343794727</v>
       </c>
       <c r="O2">
-        <v>0.8946427292307888</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7222936708041594</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.906469317701486</v>
+      </c>
+      <c r="R2">
+        <v>0.7341174900048308</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.771332560685323</v>
+        <v>1.679784169215822</v>
       </c>
       <c r="C3">
-        <v>0.5751037669587902</v>
+        <v>0.6029752272492885</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2625548732563487</v>
+        <v>0.2753610651407286</v>
       </c>
       <c r="F3">
-        <v>1.595120078530513</v>
+        <v>1.549262742899813</v>
       </c>
       <c r="G3">
-        <v>0.6182257751431735</v>
+        <v>0.5375843138249223</v>
       </c>
       <c r="H3">
-        <v>0.000435057747956602</v>
+        <v>0.0004579428376914052</v>
       </c>
       <c r="I3">
-        <v>0.001969173215759845</v>
+        <v>0.002133832753973941</v>
       </c>
       <c r="J3">
-        <v>0.4287216579550801</v>
+        <v>0.4408549155444206</v>
       </c>
       <c r="K3">
-        <v>0.3371197281146365</v>
+        <v>0.2985849065954191</v>
       </c>
       <c r="L3">
-        <v>0.0338979440701781</v>
+        <v>0.1733902059649708</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06620357986571257</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.03291193151654137</v>
       </c>
       <c r="O3">
-        <v>0.7818596478478597</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7479613828245313</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.7917697496672744</v>
+      </c>
+      <c r="R3">
+        <v>0.7529484843880176</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.607751569964165</v>
+        <v>1.530181722203821</v>
       </c>
       <c r="C4">
-        <v>0.5237746832066534</v>
+        <v>0.5468922418737634</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2459225572722943</v>
+        <v>0.2576372856138249</v>
       </c>
       <c r="F4">
-        <v>1.503382387654781</v>
+        <v>1.463316198681341</v>
       </c>
       <c r="G4">
-        <v>0.5818054638620396</v>
+        <v>0.5085064695044821</v>
       </c>
       <c r="H4">
-        <v>0.0009996762858817121</v>
+        <v>0.001006930531950223</v>
       </c>
       <c r="I4">
-        <v>0.001300258341039306</v>
+        <v>0.001533522253263087</v>
       </c>
       <c r="J4">
-        <v>0.4148384353747048</v>
+        <v>0.4283671304085885</v>
       </c>
       <c r="K4">
-        <v>0.3306535666454735</v>
+        <v>0.2954112813871603</v>
       </c>
       <c r="L4">
-        <v>0.0325792770919302</v>
+        <v>0.1754730203538095</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06271996311003214</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.03162756916568332</v>
       </c>
       <c r="O4">
-        <v>0.7127290214733151</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7643653416602127</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7214584557630559</v>
+      </c>
+      <c r="R4">
+        <v>0.7652284675339125</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.539542849302137</v>
+        <v>1.467651948133806</v>
       </c>
       <c r="C5">
-        <v>0.5034609754606834</v>
+        <v>0.5246685298421312</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2393376612092517</v>
+        <v>0.2506192709596533</v>
       </c>
       <c r="F5">
-        <v>1.465488911374976</v>
+        <v>1.427774388251279</v>
       </c>
       <c r="G5">
-        <v>0.566182513575626</v>
+        <v>0.4959297013583353</v>
       </c>
       <c r="H5">
-        <v>0.001303844873377091</v>
+        <v>0.0012993034821005</v>
       </c>
       <c r="I5">
-        <v>0.001144066486067352</v>
+        <v>0.001404985315108576</v>
       </c>
       <c r="J5">
-        <v>0.4088043809317554</v>
+        <v>0.4228425426200886</v>
       </c>
       <c r="K5">
-        <v>0.3275445076201393</v>
+        <v>0.2936720100759906</v>
       </c>
       <c r="L5">
-        <v>0.03201897766348272</v>
+        <v>0.1760899375429723</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0613235220993964</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.03108536917827753</v>
       </c>
       <c r="O5">
-        <v>0.68471817528836</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7713210763389959</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.6929626971510103</v>
+      </c>
+      <c r="R5">
+        <v>0.7705835719006515</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.526485337504937</v>
+        <v>1.455631798006948</v>
       </c>
       <c r="C6">
-        <v>0.5007357898108182</v>
+        <v>0.5216309183435328</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2384714785363826</v>
+        <v>0.2496833467509134</v>
       </c>
       <c r="F6">
-        <v>1.45837492642363</v>
+        <v>1.421088376061846</v>
       </c>
       <c r="G6">
-        <v>0.5624874691727086</v>
+        <v>0.4928387146387792</v>
       </c>
       <c r="H6">
-        <v>0.0013598566263886</v>
+        <v>0.00135293321931429</v>
       </c>
       <c r="I6">
-        <v>0.001201311772314639</v>
+        <v>0.001483168445859384</v>
       </c>
       <c r="J6">
-        <v>0.4072427667038312</v>
+        <v>0.4213891333203179</v>
       </c>
       <c r="K6">
-        <v>0.3263785118520346</v>
+        <v>0.2928078479126519</v>
       </c>
       <c r="L6">
-        <v>0.0319068107702043</v>
+        <v>0.1759136606675433</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06094222669794469</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.03098084542994495</v>
       </c>
       <c r="O6">
-        <v>0.6802378413454093</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7726281207624375</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.688397363899476</v>
+      </c>
+      <c r="R6">
+        <v>0.7717011087245034</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.602108680982809</v>
+        <v>1.5229676456768</v>
       </c>
       <c r="C7">
-        <v>0.5252625859575346</v>
+        <v>0.5469459990042935</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2464540051612119</v>
+        <v>0.2586704678095941</v>
       </c>
       <c r="F7">
-        <v>1.500597910467349</v>
+        <v>1.459326707579734</v>
       </c>
       <c r="G7">
-        <v>0.5785625825628671</v>
+        <v>0.508733474404707</v>
       </c>
       <c r="H7">
-        <v>0.001006219917047746</v>
+        <v>0.001015082663162969</v>
       </c>
       <c r="I7">
-        <v>0.001499973909514729</v>
+        <v>0.001774133615115581</v>
       </c>
       <c r="J7">
-        <v>0.4132133134185096</v>
+        <v>0.4205177220726171</v>
       </c>
       <c r="K7">
-        <v>0.3288255213155722</v>
+        <v>0.2931171463885605</v>
       </c>
       <c r="L7">
-        <v>0.03252069093351673</v>
+        <v>0.1744084476297409</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06205196352628484</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.03156049929317972</v>
       </c>
       <c r="O7">
-        <v>0.7128153180522574</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.76486416521481</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7214648055794086</v>
+      </c>
+      <c r="R7">
+        <v>0.7662243846136825</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.939116751906113</v>
+        <v>1.826235827672519</v>
       </c>
       <c r="C8">
-        <v>0.6325338783939856</v>
+        <v>0.6608075694895206</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2811641991731548</v>
+        <v>0.2968737350739232</v>
       </c>
       <c r="F8">
-        <v>1.690635213675279</v>
+        <v>1.634122553047135</v>
       </c>
       <c r="G8">
-        <v>0.6535282009264876</v>
+        <v>0.5758980417110706</v>
       </c>
       <c r="H8">
-        <v>9.497948576120407E-05</v>
+        <v>0.0001172420293940046</v>
       </c>
       <c r="I8">
-        <v>0.003125129007955252</v>
+        <v>0.003206879773442139</v>
       </c>
       <c r="J8">
-        <v>0.4418010588215964</v>
+        <v>0.4315483559812776</v>
       </c>
       <c r="K8">
-        <v>0.3418764580743883</v>
+        <v>0.2977213718958076</v>
       </c>
       <c r="L8">
-        <v>0.03521265136402008</v>
+        <v>0.1692554268808877</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06905086737891608</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.03414113418176323</v>
       </c>
       <c r="O8">
-        <v>0.8563417625520202</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7316179472323334</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.8672829894967435</v>
+      </c>
+      <c r="R8">
+        <v>0.7425288721392143</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.605134075166575</v>
+        <v>2.428944676115236</v>
       </c>
       <c r="C9">
-        <v>0.8432107751236515</v>
+        <v>0.8902518285671022</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3486229502036622</v>
+        <v>0.3696471103569294</v>
       </c>
       <c r="F9">
-        <v>2.074364692660609</v>
+        <v>1.991161006245761</v>
       </c>
       <c r="G9">
-        <v>0.811146864428764</v>
+        <v>0.7052439636656231</v>
       </c>
       <c r="H9">
-        <v>0.0009362929993508295</v>
+        <v>0.0007745700659131938</v>
       </c>
       <c r="I9">
-        <v>0.008161790163026872</v>
+        <v>0.0073023119614124</v>
       </c>
       <c r="J9">
-        <v>0.5038670108613417</v>
+        <v>0.4785456233583574</v>
       </c>
       <c r="K9">
-        <v>0.372992706473994</v>
+        <v>0.3131668191953523</v>
       </c>
       <c r="L9">
-        <v>0.04037917318832562</v>
+        <v>0.161465589701379</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.08941952690441823</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.03914906595215939</v>
       </c>
       <c r="O9">
-        <v>1.138298653571709</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6709280197520968</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.153900754241334</v>
+      </c>
+      <c r="R9">
+        <v>0.6995879990757032</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.086857249556601</v>
+        <v>2.851778656548163</v>
       </c>
       <c r="C10">
-        <v>0.9981061407626726</v>
+        <v>1.0499732607243</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3844743791388439</v>
+        <v>0.4116468222322567</v>
       </c>
       <c r="F10">
-        <v>2.318679553919296</v>
+        <v>2.208759288575848</v>
       </c>
       <c r="G10">
-        <v>0.919099490405145</v>
+        <v>0.812543063512905</v>
       </c>
       <c r="H10">
-        <v>0.003419555927404616</v>
+        <v>0.002969884645404708</v>
       </c>
       <c r="I10">
-        <v>0.01346859914589693</v>
+        <v>0.01151562280578666</v>
       </c>
       <c r="J10">
-        <v>0.5459232621173129</v>
+        <v>0.4733871277882429</v>
       </c>
       <c r="K10">
-        <v>0.3922448938152101</v>
+        <v>0.3173732879437665</v>
       </c>
       <c r="L10">
-        <v>0.04333223529393848</v>
+        <v>0.1528561616948174</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.104343568269794</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.04226381997017259</v>
       </c>
       <c r="O10">
-        <v>1.322599015218373</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6327544849738054</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.340820254583605</v>
+      </c>
+      <c r="R10">
+        <v>0.6784315244725434</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.262237600727246</v>
+        <v>2.994783365730996</v>
       </c>
       <c r="C11">
-        <v>1.038408051927235</v>
+        <v>1.071530552012518</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2885978406081975</v>
+        <v>0.3136633813564416</v>
       </c>
       <c r="F11">
-        <v>2.07108177830068</v>
+        <v>1.952880199199029</v>
       </c>
       <c r="G11">
-        <v>0.8735285319939123</v>
+        <v>0.8125312251055448</v>
       </c>
       <c r="H11">
-        <v>0.02179777332598221</v>
+        <v>0.02129930292876736</v>
       </c>
       <c r="I11">
-        <v>0.01575375039652904</v>
+        <v>0.01337518700859786</v>
       </c>
       <c r="J11">
-        <v>0.5180101467731504</v>
+        <v>0.3812631022309034</v>
       </c>
       <c r="K11">
-        <v>0.3602629543528337</v>
+        <v>0.282332720323403</v>
       </c>
       <c r="L11">
-        <v>0.04420001125364692</v>
+        <v>0.1362630964078484</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.09615388350934495</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.04681117330110851</v>
       </c>
       <c r="O11">
-        <v>1.19966579807388</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.643894614820482</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.215961585317018</v>
+      </c>
+      <c r="R11">
+        <v>0.7118163097008932</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.315664791235463</v>
+        <v>3.040283461942977</v>
       </c>
       <c r="C12">
-        <v>1.03616004458965</v>
+        <v>1.057818194167965</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2171049597223274</v>
+        <v>0.2362572981924629</v>
       </c>
       <c r="F12">
-        <v>1.826236508065051</v>
+        <v>1.712281503539543</v>
       </c>
       <c r="G12">
-        <v>0.8175116322782827</v>
+        <v>0.7816611857822409</v>
       </c>
       <c r="H12">
-        <v>0.06000919265928673</v>
+        <v>0.05953612236042005</v>
       </c>
       <c r="I12">
-        <v>0.01616322325670172</v>
+        <v>0.01363421927276409</v>
       </c>
       <c r="J12">
-        <v>0.4880348801909093</v>
+        <v>0.3316035003747828</v>
       </c>
       <c r="K12">
-        <v>0.3325753651173429</v>
+        <v>0.2575269821633093</v>
       </c>
       <c r="L12">
-        <v>0.05225357640352613</v>
+        <v>0.1263336658378513</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.08796820435168584</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.05822059744723518</v>
       </c>
       <c r="O12">
-        <v>1.062617684065209</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6658057674138931</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.077108406047692</v>
+      </c>
+      <c r="R12">
+        <v>0.7472005778902329</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.270167209678789</v>
+        <v>3.011457205536828</v>
       </c>
       <c r="C13">
-        <v>1.003795928790055</v>
+        <v>1.022639239649067</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1612025671837642</v>
+        <v>0.171909258232855</v>
       </c>
       <c r="F13">
-        <v>1.567058636582217</v>
+        <v>1.468821501279237</v>
       </c>
       <c r="G13">
-        <v>0.7454114278018551</v>
+        <v>0.7133341420778123</v>
       </c>
       <c r="H13">
-        <v>0.1150765784251178</v>
+        <v>0.1146888373318831</v>
       </c>
       <c r="I13">
-        <v>0.01537339285698724</v>
+        <v>0.0130273004551027</v>
       </c>
       <c r="J13">
-        <v>0.4522644241249481</v>
+        <v>0.3145625398243226</v>
       </c>
       <c r="K13">
-        <v>0.3037326356885472</v>
+        <v>0.2376286954596054</v>
       </c>
       <c r="L13">
-        <v>0.06602471597856763</v>
+        <v>0.1199151065969879</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.07903892975211591</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07454337495245866</v>
       </c>
       <c r="O13">
-        <v>0.9086040103621329</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.697109490545671</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9213492620705779</v>
+      </c>
+      <c r="R13">
+        <v>0.7829054235736734</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.192200817476362</v>
+        <v>2.95607603384002</v>
       </c>
       <c r="C14">
-        <v>0.9682464998319631</v>
+        <v>0.9887315209286101</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1317584165285837</v>
+        <v>0.1364225826348999</v>
       </c>
       <c r="F14">
-        <v>1.382073912209876</v>
+        <v>1.298865246799437</v>
       </c>
       <c r="G14">
-        <v>0.687477691116797</v>
+        <v>0.6497283897117967</v>
       </c>
       <c r="H14">
-        <v>0.1639087595702478</v>
+        <v>0.1635979366952824</v>
       </c>
       <c r="I14">
-        <v>0.01437684454368515</v>
+        <v>0.01231402049865249</v>
       </c>
       <c r="J14">
-        <v>0.4244643516606459</v>
+        <v>0.3148112204597879</v>
       </c>
       <c r="K14">
-        <v>0.2828439241988683</v>
+        <v>0.2253434166333683</v>
       </c>
       <c r="L14">
-        <v>0.07917853611597536</v>
+        <v>0.1166632285938576</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07237578854701709</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08879017237878628</v>
       </c>
       <c r="O14">
-        <v>0.7952387292955052</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.7239106612439841</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8067501209775543</v>
+      </c>
+      <c r="R14">
+        <v>0.8080057050515279</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.150274052779821</v>
+        <v>2.924515893371449</v>
       </c>
       <c r="C15">
-        <v>0.9540073507780562</v>
+        <v>0.976370406430533</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.125679134478883</v>
+        <v>0.1288270098373108</v>
       </c>
       <c r="F15">
-        <v>1.332170404455624</v>
+        <v>1.254432730442758</v>
       </c>
       <c r="G15">
-        <v>0.668961014055526</v>
+        <v>0.6265746692316156</v>
       </c>
       <c r="H15">
-        <v>0.1762240261839736</v>
+        <v>0.1759440504597336</v>
       </c>
       <c r="I15">
-        <v>0.01398053614443562</v>
+        <v>0.01207566953715755</v>
       </c>
       <c r="J15">
-        <v>0.4159780074274266</v>
+        <v>0.3197733794108615</v>
       </c>
       <c r="K15">
-        <v>0.2769071835992847</v>
+        <v>0.2226164402142849</v>
       </c>
       <c r="L15">
-        <v>0.08259561092518197</v>
+        <v>0.1162714335364043</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.0703603240397257</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.09219056199886211</v>
       </c>
       <c r="O15">
-        <v>0.7636302344326253</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.7321494338678178</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.7748143970572414</v>
+      </c>
+      <c r="R15">
+        <v>0.8138813053882217</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.949482664382913</v>
+        <v>2.764516218465985</v>
       </c>
       <c r="C16">
-        <v>0.8953815794699835</v>
+        <v>0.9294248350858538</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1232792457676073</v>
+        <v>0.1251967291530445</v>
       </c>
       <c r="F16">
-        <v>1.285029814657449</v>
+        <v>1.223287734485069</v>
       </c>
       <c r="G16">
-        <v>0.6362088167749675</v>
+        <v>0.5673011690390979</v>
       </c>
       <c r="H16">
-        <v>0.1627058442503255</v>
+        <v>0.1625447612135815</v>
       </c>
       <c r="I16">
-        <v>0.01182604687601518</v>
+        <v>0.01052772636671317</v>
       </c>
       <c r="J16">
-        <v>0.4044747670579198</v>
+        <v>0.3655590100033095</v>
       </c>
       <c r="K16">
-        <v>0.2735847870032728</v>
+        <v>0.2283521598826326</v>
       </c>
       <c r="L16">
-        <v>0.07819209435608343</v>
+        <v>0.1213647819535595</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.06787747581423531</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08569086665286818</v>
       </c>
       <c r="O16">
-        <v>0.7207887655964598</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.7397025302263813</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7316808275164348</v>
+      </c>
+      <c r="R16">
+        <v>0.8047784471937405</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.836968922736446</v>
+        <v>2.667847334616567</v>
       </c>
       <c r="C17">
-        <v>0.8694284800119192</v>
+        <v>0.9093358376093477</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1353475247256561</v>
+        <v>0.138763522792555</v>
       </c>
       <c r="F17">
-        <v>1.344848829077165</v>
+        <v>1.28685741907077</v>
       </c>
       <c r="G17">
-        <v>0.641595446597421</v>
+        <v>0.5592341751098928</v>
       </c>
       <c r="H17">
-        <v>0.1245924020043532</v>
+        <v>0.1244774663907435</v>
       </c>
       <c r="I17">
-        <v>0.01075697803624376</v>
+        <v>0.009748167980465183</v>
       </c>
       <c r="J17">
-        <v>0.4103372469152333</v>
+        <v>0.3957267151310191</v>
       </c>
       <c r="K17">
-        <v>0.282001239097518</v>
+        <v>0.2387131529199884</v>
       </c>
       <c r="L17">
-        <v>0.06720668370457616</v>
+        <v>0.1270601117290902</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.0691200041363409</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07308593651128703</v>
       </c>
       <c r="O17">
-        <v>0.7467338111249973</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7314170361433767</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7580034479795117</v>
+      </c>
+      <c r="R17">
+        <v>0.7869862311846063</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.791194297152344</v>
+        <v>2.623060146439911</v>
       </c>
       <c r="C18">
-        <v>0.866814645883494</v>
+        <v>0.9115761805421698</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1698617457609224</v>
+        <v>0.1768335630434592</v>
       </c>
       <c r="F18">
-        <v>1.51201631344648</v>
+        <v>1.449968058280049</v>
       </c>
       <c r="G18">
-        <v>0.6830438525582423</v>
+        <v>0.5892548060870553</v>
       </c>
       <c r="H18">
-        <v>0.07176781748366778</v>
+        <v>0.07165332037548922</v>
       </c>
       <c r="I18">
-        <v>0.01018242956888393</v>
+        <v>0.009221350173201692</v>
       </c>
       <c r="J18">
-        <v>0.4330578042865909</v>
+        <v>0.4262993845142518</v>
       </c>
       <c r="K18">
-        <v>0.3030871254593812</v>
+        <v>0.2568781412235346</v>
       </c>
       <c r="L18">
-        <v>0.05291749220165798</v>
+        <v>0.1349301959551532</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.07457444011788894</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.05709447221148878</v>
       </c>
       <c r="O18">
-        <v>0.8382963628078244</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.7098753262853847</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8507337373119768</v>
+      </c>
+      <c r="R18">
+        <v>0.7586201298450135</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.792905293933302</v>
+        <v>2.616418839019445</v>
       </c>
       <c r="C19">
-        <v>0.8865319177395179</v>
+        <v>0.9363718100424308</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2339698603471234</v>
+        <v>0.2462268081402463</v>
       </c>
       <c r="F19">
-        <v>1.762310957237133</v>
+        <v>1.690826749792535</v>
       </c>
       <c r="G19">
-        <v>0.7467089210202857</v>
+        <v>0.6415413280109874</v>
       </c>
       <c r="H19">
-        <v>0.026908818661731</v>
+        <v>0.02675144646113381</v>
       </c>
       <c r="I19">
-        <v>0.01049358653187049</v>
+        <v>0.009515243277133933</v>
       </c>
       <c r="J19">
-        <v>0.465626556214076</v>
+        <v>0.4572989645069043</v>
       </c>
       <c r="K19">
-        <v>0.330790049865179</v>
+        <v>0.2786693290203743</v>
       </c>
       <c r="L19">
-        <v>0.04264510416509637</v>
+        <v>0.1434477402159295</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.08249316562219278</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.04488081827962986</v>
       </c>
       <c r="O19">
-        <v>0.9835172413077942</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6848104908958064</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9977549308439251</v>
+      </c>
+      <c r="R19">
+        <v>0.7283661991334114</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.944974100495187</v>
+        <v>2.733886950168198</v>
       </c>
       <c r="C20">
-        <v>0.9627007020006317</v>
+        <v>1.018638564617817</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.376344422575805</v>
+        <v>0.400047069600177</v>
       </c>
       <c r="F20">
-        <v>2.245279808182062</v>
+        <v>2.147788824103017</v>
       </c>
       <c r="G20">
-        <v>0.8804494994215304</v>
+        <v>0.7634110693516618</v>
       </c>
       <c r="H20">
-        <v>0.002603608371394728</v>
+        <v>0.002253154000576796</v>
       </c>
       <c r="I20">
-        <v>0.01255560075555362</v>
+        <v>0.01113490913659554</v>
       </c>
       <c r="J20">
-        <v>0.529660289163246</v>
+        <v>0.4917843716309847</v>
       </c>
       <c r="K20">
-        <v>0.3813299477713912</v>
+        <v>0.3138069681298958</v>
       </c>
       <c r="L20">
-        <v>0.04238186351031814</v>
+        <v>0.1542056536884147</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.09930176337291741</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.04139104017264517</v>
       </c>
       <c r="O20">
-        <v>1.274568641353326</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6444854354381988</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.29231066677761</v>
+      </c>
+      <c r="R20">
+        <v>0.6850257651852374</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.323965113784254</v>
+        <v>3.025984167116405</v>
       </c>
       <c r="C21">
-        <v>1.08760682517692</v>
+        <v>1.120068153205011</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4262400537996243</v>
+        <v>0.4666255634668204</v>
       </c>
       <c r="F21">
-        <v>2.5016796905376</v>
+        <v>2.354371990340994</v>
       </c>
       <c r="G21">
-        <v>0.9833062729240396</v>
+        <v>0.9266932618330088</v>
       </c>
       <c r="H21">
-        <v>0.005225918674314989</v>
+        <v>0.004506447355156928</v>
       </c>
       <c r="I21">
-        <v>0.01723028790517134</v>
+        <v>0.01454589036970155</v>
       </c>
       <c r="J21">
-        <v>0.5719974397979541</v>
+        <v>0.3908025637695829</v>
       </c>
       <c r="K21">
-        <v>0.4049299305585166</v>
+        <v>0.3111491937166946</v>
       </c>
       <c r="L21">
-        <v>0.04576918918860784</v>
+        <v>0.1457251354961784</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1089706788098113</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.04400394697027976</v>
       </c>
       <c r="O21">
-        <v>1.454126083755611</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.612322419645686</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.472927473186445</v>
+      </c>
+      <c r="R21">
+        <v>0.6735522207732529</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.576140740061305</v>
+        <v>3.21731098769709</v>
       </c>
       <c r="C22">
-        <v>1.165789594782382</v>
+        <v>1.180013753629737</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4507630676212813</v>
+        <v>0.5028405298408742</v>
       </c>
       <c r="F22">
-        <v>2.652344274840516</v>
+        <v>2.470379590013692</v>
       </c>
       <c r="G22">
-        <v>1.050311347583261</v>
+        <v>1.042249236298304</v>
       </c>
       <c r="H22">
-        <v>0.007367642134389729</v>
+        <v>0.006351630719779511</v>
       </c>
       <c r="I22">
-        <v>0.02039719473501123</v>
+        <v>0.01668362471901741</v>
       </c>
       <c r="J22">
-        <v>0.5996355808705403</v>
+        <v>0.3270639943676201</v>
       </c>
       <c r="K22">
-        <v>0.4208318123656127</v>
+        <v>0.3088048425713552</v>
       </c>
       <c r="L22">
-        <v>0.0476819717149457</v>
+        <v>0.1401474266202634</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1153233739068078</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.04555034198053831</v>
       </c>
       <c r="O22">
-        <v>1.558882984592259</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.592536786241336</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.578043223736898</v>
+      </c>
+      <c r="R22">
+        <v>0.6688723173416449</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.447348296458756</v>
+        <v>3.125957925935438</v>
       </c>
       <c r="C23">
-        <v>1.121820146803913</v>
+        <v>1.149755619156679</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4369083622321384</v>
+        <v>0.4811768971496519</v>
       </c>
       <c r="F23">
-        <v>2.574491436019372</v>
+        <v>2.414560158087127</v>
       </c>
       <c r="G23">
-        <v>1.018065952484676</v>
+        <v>0.9742693247697787</v>
       </c>
       <c r="H23">
-        <v>0.006189212832207192</v>
+        <v>0.005344321046837908</v>
       </c>
       <c r="I23">
-        <v>0.0184416660139286</v>
+        <v>0.01524586615892876</v>
       </c>
       <c r="J23">
-        <v>0.5866530883477736</v>
+        <v>0.3741419236406358</v>
       </c>
       <c r="K23">
-        <v>0.4144028401644988</v>
+        <v>0.3134589912149508</v>
       </c>
       <c r="L23">
-        <v>0.04672279763381404</v>
+        <v>0.1442549930783592</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1133435471221027</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.04479796438050609</v>
       </c>
       <c r="O23">
-        <v>1.502375092917944</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6022811122387708</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.521555201814209</v>
+      </c>
+      <c r="R23">
+        <v>0.6686807203127927</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.95085570833055</v>
+        <v>2.738837049337349</v>
       </c>
       <c r="C24">
-        <v>0.9604270686744201</v>
+        <v>1.016995321935184</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.385953909601163</v>
+        <v>0.4102226245037812</v>
       </c>
       <c r="F24">
-        <v>2.278569852869879</v>
+        <v>2.179975769204816</v>
       </c>
       <c r="G24">
-        <v>0.8926639308573385</v>
+        <v>0.773451419591936</v>
       </c>
       <c r="H24">
-        <v>0.002597127950468181</v>
+        <v>0.002237865975023734</v>
       </c>
       <c r="I24">
-        <v>0.01216990765334192</v>
+        <v>0.01064102071631989</v>
       </c>
       <c r="J24">
-        <v>0.5359159315992912</v>
+        <v>0.4983867691746013</v>
       </c>
       <c r="K24">
-        <v>0.3877206974740801</v>
+        <v>0.3191320675675371</v>
       </c>
       <c r="L24">
-        <v>0.04298118681951202</v>
+        <v>0.1562709821709056</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1012454798052644</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.04169101967000866</v>
       </c>
       <c r="O24">
-        <v>1.290144943745062</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6419497223178858</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.308105505937704</v>
+      </c>
+      <c r="R24">
+        <v>0.6810279374619981</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.416470689619985</v>
+        <v>2.261232609408864</v>
       </c>
       <c r="C25">
-        <v>0.7890028256552455</v>
+        <v>0.8330050948257792</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.3314323244885742</v>
+        <v>0.3502689981551228</v>
       </c>
       <c r="F25">
-        <v>1.965527686905531</v>
+        <v>1.891881336078129</v>
       </c>
       <c r="G25">
-        <v>0.7623161189606122</v>
+        <v>0.660139360125811</v>
       </c>
       <c r="H25">
-        <v>0.0003962217759987396</v>
+        <v>0.000310999026012837</v>
       </c>
       <c r="I25">
-        <v>0.006872923002631204</v>
+        <v>0.006432549446804714</v>
       </c>
       <c r="J25">
-        <v>0.4838828749431627</v>
+        <v>0.4720612633417574</v>
       </c>
       <c r="K25">
-        <v>0.3610635556505315</v>
+        <v>0.3070687343792109</v>
       </c>
       <c r="L25">
-        <v>0.03890766710577243</v>
+        <v>0.1628783425411662</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.08270957631680531</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.03777878190986028</v>
       </c>
       <c r="O25">
-        <v>1.062663914966343</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6877042239907247</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>1.077091754113525</v>
+      </c>
+      <c r="R25">
+        <v>0.7114465834131991</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
